--- a/wksp_T_RA_PP/res/PP/Protocolo Punto a Punto y Conexionado.xlsx
+++ b/wksp_T_RA_PP/res/PP/Protocolo Punto a Punto y Conexionado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07d9230a41b251c3/SNN4008/Protocolos/Archivos Base/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vichaoss\PycharmProjects\Protocol_Workshop\wksp_T_RA_PP\res\PP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{D62DA479-D9D6-4C26-916A-58CBF099506B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F30E9EB8-8DCC-4A7E-B62B-388F1FFE640B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE99FFF1-184A-460B-B7B1-C86888DAA275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Punto a Punto y Conexionado" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
   <si>
     <t>Observaciones:</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>CIRCUITO</t>
+  </si>
+  <si>
+    <t>✓️</t>
   </si>
 </sst>
 </file>
@@ -1028,12 +1031,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1043,56 +1040,56 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1154,6 +1151,9 @@
     <xf numFmtId="171" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1181,43 +1181,46 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3334,8 +3337,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>443343</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>320</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>207818</xdr:rowOff>
     </xdr:from>
@@ -3372,8 +3375,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3103416" y="9615054"/>
-          <a:ext cx="9721240" cy="6899566"/>
+          <a:off x="3101483" y="9741678"/>
+          <a:ext cx="9714151" cy="6891834"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3654,8 +3657,8 @@
   </sheetPr>
   <dimension ref="A1:BB66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A41" zoomScale="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="Z50" sqref="Z50:AE54"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="43" zoomScaleSheetLayoutView="43" workbookViewId="0">
+      <selection activeCell="P55" sqref="P55:R55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
@@ -3708,198 +3711,198 @@
       <c r="AJ1" s="3"/>
     </row>
     <row r="2" spans="1:36" ht="46.5" customHeight="1">
-      <c r="A2" s="133"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="139" t="s">
+      <c r="A2" s="131"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="140"/>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="140"/>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="140"/>
-      <c r="AA2" s="140"/>
-      <c r="AB2" s="140"/>
-      <c r="AC2" s="140"/>
-      <c r="AD2" s="141"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="152"/>
-      <c r="AH2" s="152"/>
-      <c r="AI2" s="152"/>
-      <c r="AJ2" s="153"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="138"/>
+      <c r="AA2" s="138"/>
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="138"/>
+      <c r="AD2" s="139"/>
+      <c r="AE2" s="150"/>
+      <c r="AF2" s="151"/>
+      <c r="AG2" s="151"/>
+      <c r="AH2" s="151"/>
+      <c r="AI2" s="151"/>
+      <c r="AJ2" s="152"/>
     </row>
     <row r="3" spans="1:36" ht="42" customHeight="1" thickBot="1">
-      <c r="A3" s="135"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="143"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="143"/>
-      <c r="S3" s="143"/>
-      <c r="T3" s="143"/>
-      <c r="U3" s="143"/>
-      <c r="V3" s="143"/>
-      <c r="W3" s="143"/>
-      <c r="X3" s="143"/>
-      <c r="Y3" s="143"/>
-      <c r="Z3" s="143"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="143"/>
-      <c r="AC3" s="143"/>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="154"/>
-      <c r="AF3" s="155"/>
-      <c r="AG3" s="155"/>
-      <c r="AH3" s="155"/>
-      <c r="AI3" s="155"/>
-      <c r="AJ3" s="156"/>
+      <c r="A3" s="133"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="141"/>
+      <c r="O3" s="141"/>
+      <c r="P3" s="141"/>
+      <c r="Q3" s="141"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="141"/>
+      <c r="T3" s="141"/>
+      <c r="U3" s="141"/>
+      <c r="V3" s="141"/>
+      <c r="W3" s="141"/>
+      <c r="X3" s="141"/>
+      <c r="Y3" s="141"/>
+      <c r="Z3" s="141"/>
+      <c r="AA3" s="141"/>
+      <c r="AB3" s="141"/>
+      <c r="AC3" s="141"/>
+      <c r="AD3" s="142"/>
+      <c r="AE3" s="153"/>
+      <c r="AF3" s="154"/>
+      <c r="AG3" s="154"/>
+      <c r="AH3" s="154"/>
+      <c r="AI3" s="154"/>
+      <c r="AJ3" s="155"/>
     </row>
     <row r="4" spans="1:36" ht="21" customHeight="1">
-      <c r="A4" s="135"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="139" t="s">
+      <c r="A4" s="133"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="140"/>
-      <c r="O4" s="140"/>
-      <c r="P4" s="140"/>
-      <c r="Q4" s="140"/>
-      <c r="R4" s="140"/>
-      <c r="S4" s="140"/>
-      <c r="T4" s="140"/>
-      <c r="U4" s="140"/>
-      <c r="V4" s="140"/>
-      <c r="W4" s="140"/>
-      <c r="X4" s="140"/>
-      <c r="Y4" s="140"/>
-      <c r="Z4" s="140"/>
-      <c r="AA4" s="140"/>
-      <c r="AB4" s="140"/>
-      <c r="AC4" s="140"/>
-      <c r="AD4" s="141"/>
-      <c r="AE4" s="154"/>
-      <c r="AF4" s="155"/>
-      <c r="AG4" s="155"/>
-      <c r="AH4" s="155"/>
-      <c r="AI4" s="155"/>
-      <c r="AJ4" s="156"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="138"/>
+      <c r="M4" s="138"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="138"/>
+      <c r="P4" s="138"/>
+      <c r="Q4" s="138"/>
+      <c r="R4" s="138"/>
+      <c r="S4" s="138"/>
+      <c r="T4" s="138"/>
+      <c r="U4" s="138"/>
+      <c r="V4" s="138"/>
+      <c r="W4" s="138"/>
+      <c r="X4" s="138"/>
+      <c r="Y4" s="138"/>
+      <c r="Z4" s="138"/>
+      <c r="AA4" s="138"/>
+      <c r="AB4" s="138"/>
+      <c r="AC4" s="138"/>
+      <c r="AD4" s="139"/>
+      <c r="AE4" s="153"/>
+      <c r="AF4" s="154"/>
+      <c r="AG4" s="154"/>
+      <c r="AH4" s="154"/>
+      <c r="AI4" s="154"/>
+      <c r="AJ4" s="155"/>
     </row>
     <row r="5" spans="1:36" ht="22.5" customHeight="1">
-      <c r="A5" s="135"/>
-      <c r="B5" s="136"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="142"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="143"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="143"/>
-      <c r="M5" s="143"/>
-      <c r="N5" s="143"/>
-      <c r="O5" s="143"/>
-      <c r="P5" s="143"/>
-      <c r="Q5" s="143"/>
-      <c r="R5" s="143"/>
-      <c r="S5" s="143"/>
-      <c r="T5" s="143"/>
-      <c r="U5" s="143"/>
-      <c r="V5" s="143"/>
-      <c r="W5" s="143"/>
-      <c r="X5" s="143"/>
-      <c r="Y5" s="143"/>
-      <c r="Z5" s="143"/>
-      <c r="AA5" s="143"/>
-      <c r="AB5" s="143"/>
-      <c r="AC5" s="143"/>
-      <c r="AD5" s="144"/>
-      <c r="AE5" s="154"/>
-      <c r="AF5" s="155"/>
-      <c r="AG5" s="155"/>
-      <c r="AH5" s="155"/>
-      <c r="AI5" s="155"/>
-      <c r="AJ5" s="156"/>
+      <c r="A5" s="133"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="141"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="141"/>
+      <c r="N5" s="141"/>
+      <c r="O5" s="141"/>
+      <c r="P5" s="141"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="141"/>
+      <c r="S5" s="141"/>
+      <c r="T5" s="141"/>
+      <c r="U5" s="141"/>
+      <c r="V5" s="141"/>
+      <c r="W5" s="141"/>
+      <c r="X5" s="141"/>
+      <c r="Y5" s="141"/>
+      <c r="Z5" s="141"/>
+      <c r="AA5" s="141"/>
+      <c r="AB5" s="141"/>
+      <c r="AC5" s="141"/>
+      <c r="AD5" s="142"/>
+      <c r="AE5" s="153"/>
+      <c r="AF5" s="154"/>
+      <c r="AG5" s="154"/>
+      <c r="AH5" s="154"/>
+      <c r="AI5" s="154"/>
+      <c r="AJ5" s="155"/>
     </row>
     <row r="6" spans="1:36" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="137"/>
-      <c r="B6" s="138"/>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="146"/>
-      <c r="N6" s="146"/>
-      <c r="O6" s="146"/>
-      <c r="P6" s="146"/>
-      <c r="Q6" s="146"/>
-      <c r="R6" s="146"/>
-      <c r="S6" s="146"/>
-      <c r="T6" s="146"/>
-      <c r="U6" s="146"/>
-      <c r="V6" s="146"/>
-      <c r="W6" s="146"/>
-      <c r="X6" s="146"/>
-      <c r="Y6" s="146"/>
-      <c r="Z6" s="146"/>
-      <c r="AA6" s="146"/>
-      <c r="AB6" s="146"/>
-      <c r="AC6" s="146"/>
-      <c r="AD6" s="147"/>
-      <c r="AE6" s="157"/>
-      <c r="AF6" s="158"/>
-      <c r="AG6" s="158"/>
-      <c r="AH6" s="158"/>
-      <c r="AI6" s="158"/>
-      <c r="AJ6" s="159"/>
+      <c r="A6" s="135"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="144"/>
+      <c r="O6" s="144"/>
+      <c r="P6" s="144"/>
+      <c r="Q6" s="144"/>
+      <c r="R6" s="144"/>
+      <c r="S6" s="144"/>
+      <c r="T6" s="144"/>
+      <c r="U6" s="144"/>
+      <c r="V6" s="144"/>
+      <c r="W6" s="144"/>
+      <c r="X6" s="144"/>
+      <c r="Y6" s="144"/>
+      <c r="Z6" s="144"/>
+      <c r="AA6" s="144"/>
+      <c r="AB6" s="144"/>
+      <c r="AC6" s="144"/>
+      <c r="AD6" s="145"/>
+      <c r="AE6" s="156"/>
+      <c r="AF6" s="157"/>
+      <c r="AG6" s="157"/>
+      <c r="AH6" s="157"/>
+      <c r="AI6" s="157"/>
+      <c r="AJ6" s="158"/>
     </row>
     <row r="7" spans="1:36" ht="18.600000000000001" thickBot="1">
       <c r="A7" s="5"/>
@@ -3932,52 +3935,52 @@
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
-      <c r="AE7" s="124" t="s">
+      <c r="AE7" s="167" t="s">
         <v>48</v>
       </c>
-      <c r="AF7" s="124"/>
-      <c r="AG7" s="124"/>
-      <c r="AH7" s="124"/>
-      <c r="AI7" s="124"/>
-      <c r="AJ7" s="125"/>
+      <c r="AF7" s="167"/>
+      <c r="AG7" s="167"/>
+      <c r="AH7" s="167"/>
+      <c r="AI7" s="167"/>
+      <c r="AJ7" s="168"/>
     </row>
     <row r="8" spans="1:36" ht="8.25" customHeight="1" thickBot="1">
-      <c r="A8" s="148"/>
-      <c r="B8" s="149"/>
-      <c r="C8" s="149"/>
-      <c r="D8" s="149"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="149"/>
-      <c r="J8" s="149"/>
-      <c r="K8" s="149"/>
-      <c r="L8" s="149"/>
-      <c r="M8" s="149"/>
-      <c r="N8" s="149"/>
-      <c r="O8" s="149"/>
-      <c r="P8" s="149"/>
-      <c r="Q8" s="149"/>
-      <c r="R8" s="149"/>
-      <c r="S8" s="149"/>
-      <c r="T8" s="149"/>
-      <c r="U8" s="149"/>
-      <c r="V8" s="149"/>
-      <c r="W8" s="149"/>
-      <c r="X8" s="149"/>
-      <c r="Y8" s="149"/>
-      <c r="Z8" s="149"/>
-      <c r="AA8" s="149"/>
-      <c r="AB8" s="149"/>
-      <c r="AC8" s="149"/>
-      <c r="AD8" s="149"/>
-      <c r="AE8" s="149"/>
-      <c r="AF8" s="149"/>
-      <c r="AG8" s="149"/>
-      <c r="AH8" s="149"/>
-      <c r="AI8" s="149"/>
-      <c r="AJ8" s="150"/>
+      <c r="A8" s="146"/>
+      <c r="B8" s="147"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="147"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="147"/>
+      <c r="K8" s="147"/>
+      <c r="L8" s="147"/>
+      <c r="M8" s="147"/>
+      <c r="N8" s="147"/>
+      <c r="O8" s="147"/>
+      <c r="P8" s="147"/>
+      <c r="Q8" s="147"/>
+      <c r="R8" s="147"/>
+      <c r="S8" s="147"/>
+      <c r="T8" s="147"/>
+      <c r="U8" s="147"/>
+      <c r="V8" s="147"/>
+      <c r="W8" s="147"/>
+      <c r="X8" s="147"/>
+      <c r="Y8" s="147"/>
+      <c r="Z8" s="147"/>
+      <c r="AA8" s="147"/>
+      <c r="AB8" s="147"/>
+      <c r="AC8" s="147"/>
+      <c r="AD8" s="147"/>
+      <c r="AE8" s="147"/>
+      <c r="AF8" s="147"/>
+      <c r="AG8" s="147"/>
+      <c r="AH8" s="147"/>
+      <c r="AI8" s="147"/>
+      <c r="AJ8" s="148"/>
     </row>
     <row r="9" spans="1:36" ht="33" customHeight="1">
       <c r="A9" s="1"/>
@@ -4020,33 +4023,33 @@
     </row>
     <row r="10" spans="1:36" ht="33" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="130" t="s">
+      <c r="B10" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="130"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="I10" s="129" t="s">
+      <c r="C10" s="149"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="149"/>
+      <c r="I10" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="129"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="129"/>
-      <c r="M10" s="129"/>
-      <c r="N10" s="129"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="120"/>
+      <c r="N10" s="120"/>
       <c r="Q10" s="16"/>
       <c r="R10" s="87" t="s">
         <v>15</v>
       </c>
       <c r="U10" s="87"/>
-      <c r="W10" s="129" t="s">
+      <c r="W10" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="X10" s="129"/>
-      <c r="Y10" s="129"/>
-      <c r="Z10" s="129"/>
-      <c r="AA10" s="129"/>
-      <c r="AB10" s="129"/>
+      <c r="X10" s="120"/>
+      <c r="Y10" s="120"/>
+      <c r="Z10" s="120"/>
+      <c r="AA10" s="120"/>
+      <c r="AB10" s="120"/>
       <c r="AC10" s="87"/>
       <c r="AD10" s="87"/>
       <c r="AE10" s="87"/>
@@ -4058,34 +4061,34 @@
     </row>
     <row r="11" spans="1:36" ht="33" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="I11" s="129" t="s">
+      <c r="C11" s="149"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="149"/>
+      <c r="I11" s="120" t="s">
         <v>60</v>
       </c>
-      <c r="J11" s="129"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="129"/>
-      <c r="M11" s="129"/>
-      <c r="N11" s="129"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="120"/>
+      <c r="N11" s="120"/>
       <c r="R11" s="87" t="s">
         <v>17</v>
       </c>
       <c r="S11" s="87"/>
       <c r="U11" s="88"/>
       <c r="V11" s="88"/>
-      <c r="W11" s="129">
+      <c r="W11" s="120">
         <v>0</v>
       </c>
-      <c r="X11" s="129"/>
-      <c r="Y11" s="129"/>
-      <c r="Z11" s="129"/>
-      <c r="AA11" s="129"/>
-      <c r="AB11" s="129"/>
+      <c r="X11" s="120"/>
+      <c r="Y11" s="120"/>
+      <c r="Z11" s="120"/>
+      <c r="AA11" s="120"/>
+      <c r="AB11" s="120"/>
       <c r="AC11" s="87"/>
       <c r="AD11" s="87"/>
       <c r="AE11" s="87"/>
@@ -4097,18 +4100,18 @@
     </row>
     <row r="12" spans="1:36" ht="33" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="130" t="s">
+      <c r="B12" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="128"/>
-      <c r="M12" s="128"/>
-      <c r="N12" s="128"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="149"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="124"/>
       <c r="O12" s="87"/>
       <c r="P12" s="87"/>
       <c r="Q12" s="87" t="s">
@@ -4117,12 +4120,12 @@
       <c r="S12" s="87"/>
       <c r="U12" s="88"/>
       <c r="V12" s="88"/>
-      <c r="W12" s="160"/>
-      <c r="X12" s="160"/>
-      <c r="Y12" s="160"/>
-      <c r="Z12" s="160"/>
-      <c r="AA12" s="160"/>
-      <c r="AB12" s="160"/>
+      <c r="W12" s="126"/>
+      <c r="X12" s="126"/>
+      <c r="Y12" s="126"/>
+      <c r="Z12" s="126"/>
+      <c r="AA12" s="126"/>
+      <c r="AB12" s="126"/>
       <c r="AC12" s="87"/>
       <c r="AD12" s="87"/>
       <c r="AE12" s="87"/>
@@ -4141,14 +4144,14 @@
       <c r="D13" s="89"/>
       <c r="E13" s="89"/>
       <c r="H13" s="88"/>
-      <c r="I13" s="161" t="s">
+      <c r="I13" s="127" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="161"/>
-      <c r="K13" s="161"/>
-      <c r="L13" s="161"/>
-      <c r="M13" s="161"/>
-      <c r="N13" s="161"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="127"/>
+      <c r="L13" s="127"/>
+      <c r="M13" s="127"/>
+      <c r="N13" s="127"/>
       <c r="O13" s="88"/>
       <c r="P13" s="87"/>
       <c r="Q13" s="89"/>
@@ -4159,12 +4162,12 @@
       <c r="T13" s="87"/>
       <c r="U13" s="87"/>
       <c r="V13" s="87"/>
-      <c r="W13" s="160"/>
-      <c r="X13" s="160"/>
-      <c r="Y13" s="160"/>
-      <c r="Z13" s="160"/>
-      <c r="AA13" s="160"/>
-      <c r="AB13" s="160"/>
+      <c r="W13" s="126"/>
+      <c r="X13" s="126"/>
+      <c r="Y13" s="126"/>
+      <c r="Z13" s="126"/>
+      <c r="AA13" s="126"/>
+      <c r="AB13" s="126"/>
       <c r="AC13" s="87"/>
       <c r="AD13" s="87"/>
       <c r="AE13" s="87"/>
@@ -4387,27 +4390,27 @@
       <c r="F19" s="80"/>
       <c r="G19" s="80"/>
       <c r="H19" s="80"/>
-      <c r="I19" s="129"/>
-      <c r="J19" s="129"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="129"/>
-      <c r="N19" s="129"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="120"/>
+      <c r="N19" s="120"/>
       <c r="O19" s="28"/>
       <c r="P19" s="28"/>
       <c r="Q19" s="90"/>
-      <c r="R19" s="127" t="s">
+      <c r="R19" s="169" t="s">
         <v>47</v>
       </c>
-      <c r="S19" s="127"/>
-      <c r="T19" s="127"/>
+      <c r="S19" s="169"/>
+      <c r="T19" s="169"/>
       <c r="U19" s="87"/>
-      <c r="W19" s="129"/>
-      <c r="X19" s="129"/>
-      <c r="Y19" s="129"/>
-      <c r="Z19" s="129"/>
-      <c r="AA19" s="129"/>
-      <c r="AB19" s="129"/>
+      <c r="W19" s="120"/>
+      <c r="X19" s="120"/>
+      <c r="Y19" s="120"/>
+      <c r="Z19" s="120"/>
+      <c r="AA19" s="120"/>
+      <c r="AB19" s="120"/>
       <c r="AC19" s="80"/>
       <c r="AD19" s="80"/>
       <c r="AE19" s="80"/>
@@ -4428,27 +4431,27 @@
       <c r="F20" s="80"/>
       <c r="G20" s="80"/>
       <c r="H20" s="80"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="128"/>
-      <c r="K20" s="128"/>
-      <c r="L20" s="128"/>
-      <c r="M20" s="128"/>
-      <c r="N20" s="128"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="124"/>
+      <c r="M20" s="124"/>
+      <c r="N20" s="124"/>
       <c r="O20" s="28"/>
       <c r="P20" s="28"/>
       <c r="Q20" s="90"/>
-      <c r="R20" s="127" t="s">
+      <c r="R20" s="169" t="s">
         <v>46</v>
       </c>
-      <c r="S20" s="127"/>
-      <c r="T20" s="127"/>
+      <c r="S20" s="169"/>
+      <c r="T20" s="169"/>
       <c r="U20" s="87"/>
-      <c r="W20" s="129"/>
-      <c r="X20" s="129"/>
-      <c r="Y20" s="129"/>
-      <c r="Z20" s="129"/>
-      <c r="AA20" s="129"/>
-      <c r="AB20" s="129"/>
+      <c r="W20" s="120"/>
+      <c r="X20" s="120"/>
+      <c r="Y20" s="120"/>
+      <c r="Z20" s="120"/>
+      <c r="AA20" s="120"/>
+      <c r="AB20" s="120"/>
       <c r="AC20" s="80"/>
       <c r="AD20" s="80"/>
       <c r="AE20" s="80"/>
@@ -4469,27 +4472,27 @@
       <c r="F21" s="80"/>
       <c r="G21" s="80"/>
       <c r="H21" s="80"/>
-      <c r="I21" s="128"/>
-      <c r="J21" s="128"/>
-      <c r="K21" s="128"/>
-      <c r="L21" s="128"/>
-      <c r="M21" s="128"/>
-      <c r="N21" s="128"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="124"/>
+      <c r="L21" s="124"/>
+      <c r="M21" s="124"/>
+      <c r="N21" s="124"/>
       <c r="O21" s="28"/>
       <c r="P21" s="28"/>
       <c r="Q21" s="90"/>
-      <c r="R21" s="127" t="s">
+      <c r="R21" s="169" t="s">
         <v>49</v>
       </c>
-      <c r="S21" s="127"/>
-      <c r="T21" s="127"/>
+      <c r="S21" s="169"/>
+      <c r="T21" s="169"/>
       <c r="U21" s="87"/>
-      <c r="W21" s="129"/>
-      <c r="X21" s="129"/>
-      <c r="Y21" s="129"/>
-      <c r="Z21" s="129"/>
-      <c r="AA21" s="129"/>
-      <c r="AB21" s="129"/>
+      <c r="W21" s="120"/>
+      <c r="X21" s="120"/>
+      <c r="Y21" s="120"/>
+      <c r="Z21" s="120"/>
+      <c r="AA21" s="120"/>
+      <c r="AB21" s="120"/>
       <c r="AC21" s="80"/>
       <c r="AD21" s="80"/>
       <c r="AE21" s="80"/>
@@ -4510,27 +4513,27 @@
       <c r="F22" s="80"/>
       <c r="G22" s="80"/>
       <c r="H22" s="80"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="128"/>
-      <c r="K22" s="128"/>
-      <c r="L22" s="128"/>
-      <c r="M22" s="128"/>
-      <c r="N22" s="128"/>
+      <c r="I22" s="124"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="124"/>
+      <c r="M22" s="124"/>
+      <c r="N22" s="124"/>
       <c r="O22" s="28"/>
       <c r="P22" s="28"/>
       <c r="Q22" s="90"/>
-      <c r="R22" s="127" t="s">
+      <c r="R22" s="169" t="s">
         <v>31</v>
       </c>
-      <c r="S22" s="127"/>
-      <c r="T22" s="127"/>
+      <c r="S22" s="169"/>
+      <c r="T22" s="169"/>
       <c r="U22" s="87"/>
-      <c r="W22" s="129"/>
-      <c r="X22" s="129"/>
-      <c r="Y22" s="129"/>
-      <c r="Z22" s="129"/>
-      <c r="AA22" s="129"/>
-      <c r="AB22" s="129"/>
+      <c r="W22" s="120"/>
+      <c r="X22" s="120"/>
+      <c r="Y22" s="120"/>
+      <c r="Z22" s="120"/>
+      <c r="AA22" s="120"/>
+      <c r="AB22" s="120"/>
       <c r="AC22" s="80"/>
       <c r="AD22" s="80"/>
       <c r="AE22" s="80"/>
@@ -4620,10 +4623,10 @@
         <v>11</v>
       </c>
       <c r="C25" s="84"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="111"/>
+      <c r="D25" s="171"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="171"/>
+      <c r="G25" s="171"/>
       <c r="H25" s="93"/>
       <c r="I25" s="80"/>
       <c r="J25" s="80"/>
@@ -4650,10 +4653,10 @@
         <v>5</v>
       </c>
       <c r="AE25" s="42"/>
-      <c r="AF25" s="112"/>
-      <c r="AG25" s="112"/>
-      <c r="AH25" s="112"/>
-      <c r="AI25" s="112"/>
+      <c r="AF25" s="172"/>
+      <c r="AG25" s="172"/>
+      <c r="AH25" s="172"/>
+      <c r="AI25" s="172"/>
       <c r="AJ25" s="44"/>
     </row>
     <row r="26" spans="1:36" ht="21.75" customHeight="1">
@@ -4696,18 +4699,18 @@
     </row>
     <row r="27" spans="1:36" ht="21.75" customHeight="1">
       <c r="A27" s="43"/>
-      <c r="B27" s="113" t="s">
+      <c r="B27" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="114"/>
-      <c r="D27" s="113" t="s">
+      <c r="C27" s="112"/>
+      <c r="D27" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="114"/>
-      <c r="F27" s="113" t="s">
+      <c r="E27" s="112"/>
+      <c r="F27" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="G27" s="114"/>
+      <c r="G27" s="112"/>
       <c r="H27" s="80"/>
       <c r="I27" s="80"/>
       <c r="J27" s="80"/>
@@ -4730,28 +4733,28 @@
       <c r="AA27" s="80"/>
       <c r="AB27" s="80"/>
       <c r="AC27" s="80"/>
-      <c r="AD27" s="113" t="s">
+      <c r="AD27" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="AE27" s="114"/>
-      <c r="AF27" s="113" t="s">
+      <c r="AE27" s="112"/>
+      <c r="AF27" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="AG27" s="114"/>
-      <c r="AH27" s="113" t="s">
+      <c r="AG27" s="112"/>
+      <c r="AH27" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="AI27" s="114"/>
+      <c r="AI27" s="112"/>
       <c r="AJ27" s="44"/>
     </row>
     <row r="28" spans="1:36" ht="27" customHeight="1">
       <c r="A28" s="43"/>
-      <c r="B28" s="115"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="114"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="112"/>
       <c r="H28" s="80"/>
       <c r="I28" s="80"/>
       <c r="J28" s="80"/>
@@ -4774,22 +4777,22 @@
       <c r="AA28" s="96"/>
       <c r="AB28" s="96"/>
       <c r="AC28" s="96"/>
-      <c r="AD28" s="113"/>
-      <c r="AE28" s="114"/>
-      <c r="AF28" s="113"/>
-      <c r="AG28" s="114"/>
-      <c r="AH28" s="113"/>
-      <c r="AI28" s="114"/>
+      <c r="AD28" s="111"/>
+      <c r="AE28" s="112"/>
+      <c r="AF28" s="111"/>
+      <c r="AG28" s="112"/>
+      <c r="AH28" s="111"/>
+      <c r="AI28" s="112"/>
       <c r="AJ28" s="44"/>
     </row>
     <row r="29" spans="1:36" ht="27" customHeight="1">
       <c r="A29" s="43"/>
-      <c r="B29" s="115"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="114"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="112"/>
       <c r="H29" s="97"/>
       <c r="I29" s="97"/>
       <c r="J29" s="97"/>
@@ -4812,22 +4815,22 @@
       <c r="AA29" s="96"/>
       <c r="AB29" s="96"/>
       <c r="AC29" s="96"/>
-      <c r="AD29" s="113"/>
-      <c r="AE29" s="114"/>
-      <c r="AF29" s="113"/>
-      <c r="AG29" s="114"/>
-      <c r="AH29" s="113"/>
-      <c r="AI29" s="114"/>
+      <c r="AD29" s="111"/>
+      <c r="AE29" s="112"/>
+      <c r="AF29" s="111"/>
+      <c r="AG29" s="112"/>
+      <c r="AH29" s="111"/>
+      <c r="AI29" s="112"/>
       <c r="AJ29" s="44"/>
     </row>
     <row r="30" spans="1:36" ht="27" customHeight="1">
       <c r="A30" s="43"/>
-      <c r="B30" s="115"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="114"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="112"/>
       <c r="H30" s="97"/>
       <c r="I30" s="97"/>
       <c r="J30" s="97"/>
@@ -4850,22 +4853,22 @@
       <c r="AA30" s="96"/>
       <c r="AB30" s="96"/>
       <c r="AC30" s="96"/>
-      <c r="AD30" s="113"/>
-      <c r="AE30" s="114"/>
-      <c r="AF30" s="113"/>
-      <c r="AG30" s="114"/>
-      <c r="AH30" s="113"/>
-      <c r="AI30" s="114"/>
+      <c r="AD30" s="111"/>
+      <c r="AE30" s="112"/>
+      <c r="AF30" s="111"/>
+      <c r="AG30" s="112"/>
+      <c r="AH30" s="111"/>
+      <c r="AI30" s="112"/>
       <c r="AJ30" s="44"/>
     </row>
     <row r="31" spans="1:36" ht="30" customHeight="1">
       <c r="A31" s="43"/>
-      <c r="B31" s="115"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="114"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="112"/>
       <c r="H31" s="97"/>
       <c r="I31" s="97"/>
       <c r="J31" s="97"/>
@@ -4888,22 +4891,22 @@
       <c r="AA31" s="96"/>
       <c r="AB31" s="96"/>
       <c r="AC31" s="96"/>
-      <c r="AD31" s="113"/>
-      <c r="AE31" s="114"/>
-      <c r="AF31" s="113"/>
-      <c r="AG31" s="114"/>
-      <c r="AH31" s="113"/>
-      <c r="AI31" s="114"/>
+      <c r="AD31" s="111"/>
+      <c r="AE31" s="112"/>
+      <c r="AF31" s="111"/>
+      <c r="AG31" s="112"/>
+      <c r="AH31" s="111"/>
+      <c r="AI31" s="112"/>
       <c r="AJ31" s="44"/>
     </row>
     <row r="32" spans="1:36" ht="28.5" customHeight="1">
       <c r="A32" s="43"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="114"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="112"/>
       <c r="H32" s="97"/>
       <c r="I32" s="97"/>
       <c r="J32" s="97"/>
@@ -4926,22 +4929,22 @@
       <c r="AA32" s="96"/>
       <c r="AB32" s="96"/>
       <c r="AC32" s="96"/>
-      <c r="AD32" s="113"/>
-      <c r="AE32" s="114"/>
-      <c r="AF32" s="113"/>
-      <c r="AG32" s="114"/>
-      <c r="AH32" s="113"/>
-      <c r="AI32" s="114"/>
+      <c r="AD32" s="111"/>
+      <c r="AE32" s="112"/>
+      <c r="AF32" s="111"/>
+      <c r="AG32" s="112"/>
+      <c r="AH32" s="111"/>
+      <c r="AI32" s="112"/>
       <c r="AJ32" s="44"/>
     </row>
     <row r="33" spans="1:36" ht="28.5" customHeight="1">
       <c r="A33" s="43"/>
-      <c r="B33" s="115"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="114"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="112"/>
       <c r="H33" s="97"/>
       <c r="I33" s="97"/>
       <c r="J33" s="97"/>
@@ -4964,22 +4967,22 @@
       <c r="AA33" s="96"/>
       <c r="AB33" s="96"/>
       <c r="AC33" s="96"/>
-      <c r="AD33" s="113"/>
-      <c r="AE33" s="114"/>
-      <c r="AF33" s="113"/>
-      <c r="AG33" s="114"/>
-      <c r="AH33" s="113"/>
-      <c r="AI33" s="114"/>
+      <c r="AD33" s="111"/>
+      <c r="AE33" s="112"/>
+      <c r="AF33" s="111"/>
+      <c r="AG33" s="112"/>
+      <c r="AH33" s="111"/>
+      <c r="AI33" s="112"/>
       <c r="AJ33" s="44"/>
     </row>
     <row r="34" spans="1:36" ht="30.75" customHeight="1">
       <c r="A34" s="14"/>
-      <c r="B34" s="115"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="114"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="112"/>
       <c r="H34" s="97"/>
       <c r="I34" s="97"/>
       <c r="J34" s="97"/>
@@ -5002,22 +5005,22 @@
       <c r="AA34" s="96"/>
       <c r="AB34" s="96"/>
       <c r="AC34" s="96"/>
-      <c r="AD34" s="113"/>
-      <c r="AE34" s="114"/>
-      <c r="AF34" s="113"/>
-      <c r="AG34" s="114"/>
-      <c r="AH34" s="113"/>
-      <c r="AI34" s="114"/>
+      <c r="AD34" s="111"/>
+      <c r="AE34" s="112"/>
+      <c r="AF34" s="111"/>
+      <c r="AG34" s="112"/>
+      <c r="AH34" s="111"/>
+      <c r="AI34" s="112"/>
       <c r="AJ34" s="17"/>
     </row>
     <row r="35" spans="1:36" ht="30.75" customHeight="1" thickBot="1">
       <c r="A35" s="43"/>
-      <c r="B35" s="115"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="114"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="112"/>
       <c r="H35" s="97"/>
       <c r="I35" s="97"/>
       <c r="J35" s="97"/>
@@ -5040,38 +5043,38 @@
       <c r="AA35" s="96"/>
       <c r="AB35" s="96"/>
       <c r="AC35" s="96"/>
-      <c r="AD35" s="113"/>
-      <c r="AE35" s="114"/>
-      <c r="AF35" s="113"/>
-      <c r="AG35" s="114"/>
-      <c r="AH35" s="113"/>
-      <c r="AI35" s="114"/>
+      <c r="AD35" s="111"/>
+      <c r="AE35" s="112"/>
+      <c r="AF35" s="111"/>
+      <c r="AG35" s="112"/>
+      <c r="AH35" s="111"/>
+      <c r="AI35" s="112"/>
       <c r="AJ35" s="44"/>
     </row>
     <row r="36" spans="1:36" ht="33" customHeight="1" thickBot="1">
       <c r="A36" s="43"/>
-      <c r="B36" s="115"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="113"/>
-      <c r="G36" s="114"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="111"/>
+      <c r="G36" s="112"/>
       <c r="H36" s="97"/>
       <c r="I36" s="97"/>
       <c r="J36" s="97"/>
       <c r="K36" s="97"/>
       <c r="L36" s="97"/>
-      <c r="M36" s="131" t="s">
+      <c r="M36" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="N36" s="131"/>
-      <c r="O36" s="131"/>
+      <c r="N36" s="170"/>
+      <c r="O36" s="170"/>
       <c r="P36" s="98"/>
-      <c r="Q36" s="162"/>
-      <c r="R36" s="163"/>
-      <c r="S36" s="163"/>
-      <c r="T36" s="163"/>
-      <c r="U36" s="164"/>
+      <c r="Q36" s="128"/>
+      <c r="R36" s="129"/>
+      <c r="S36" s="129"/>
+      <c r="T36" s="129"/>
+      <c r="U36" s="130"/>
       <c r="V36" s="96"/>
       <c r="W36" s="96"/>
       <c r="X36" s="96"/>
@@ -5080,22 +5083,22 @@
       <c r="AA36" s="96"/>
       <c r="AB36" s="96"/>
       <c r="AC36" s="96"/>
-      <c r="AD36" s="113"/>
-      <c r="AE36" s="114"/>
-      <c r="AF36" s="113"/>
-      <c r="AG36" s="114"/>
-      <c r="AH36" s="113"/>
-      <c r="AI36" s="114"/>
+      <c r="AD36" s="111"/>
+      <c r="AE36" s="112"/>
+      <c r="AF36" s="111"/>
+      <c r="AG36" s="112"/>
+      <c r="AH36" s="111"/>
+      <c r="AI36" s="112"/>
       <c r="AJ36" s="45"/>
     </row>
     <row r="37" spans="1:36" ht="30.75" customHeight="1">
       <c r="A37" s="46"/>
-      <c r="B37" s="115"/>
-      <c r="C37" s="115"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="113"/>
-      <c r="G37" s="114"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="112"/>
       <c r="H37" s="97"/>
       <c r="I37" s="97"/>
       <c r="J37" s="97"/>
@@ -5118,22 +5121,22 @@
       <c r="AA37" s="96"/>
       <c r="AB37" s="96"/>
       <c r="AC37" s="96"/>
-      <c r="AD37" s="113"/>
-      <c r="AE37" s="114"/>
-      <c r="AF37" s="113"/>
-      <c r="AG37" s="114"/>
-      <c r="AH37" s="113"/>
-      <c r="AI37" s="114"/>
+      <c r="AD37" s="111"/>
+      <c r="AE37" s="112"/>
+      <c r="AF37" s="111"/>
+      <c r="AG37" s="112"/>
+      <c r="AH37" s="111"/>
+      <c r="AI37" s="112"/>
       <c r="AJ37" s="45"/>
     </row>
     <row r="38" spans="1:36" ht="30.75" customHeight="1">
       <c r="A38" s="46"/>
-      <c r="B38" s="115"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="115"/>
+      <c r="B38" s="113"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="113"/>
       <c r="H38" s="97"/>
       <c r="I38" s="97"/>
       <c r="J38" s="97"/>
@@ -5156,22 +5159,22 @@
       <c r="AA38" s="96"/>
       <c r="AB38" s="96"/>
       <c r="AC38" s="96"/>
-      <c r="AD38" s="115"/>
-      <c r="AE38" s="115"/>
-      <c r="AF38" s="115"/>
-      <c r="AG38" s="115"/>
-      <c r="AH38" s="115"/>
-      <c r="AI38" s="115"/>
+      <c r="AD38" s="113"/>
+      <c r="AE38" s="113"/>
+      <c r="AF38" s="113"/>
+      <c r="AG38" s="113"/>
+      <c r="AH38" s="113"/>
+      <c r="AI38" s="113"/>
       <c r="AJ38" s="45"/>
     </row>
     <row r="39" spans="1:36" ht="30.75" customHeight="1">
       <c r="A39" s="46"/>
-      <c r="B39" s="115"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="115"/>
+      <c r="B39" s="113"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="113"/>
       <c r="H39" s="97"/>
       <c r="I39" s="97"/>
       <c r="J39" s="97"/>
@@ -5194,22 +5197,22 @@
       <c r="AA39" s="96"/>
       <c r="AB39" s="96"/>
       <c r="AC39" s="96"/>
-      <c r="AD39" s="115"/>
-      <c r="AE39" s="115"/>
-      <c r="AF39" s="115"/>
-      <c r="AG39" s="115"/>
-      <c r="AH39" s="115"/>
-      <c r="AI39" s="115"/>
+      <c r="AD39" s="113"/>
+      <c r="AE39" s="113"/>
+      <c r="AF39" s="113"/>
+      <c r="AG39" s="113"/>
+      <c r="AH39" s="113"/>
+      <c r="AI39" s="113"/>
       <c r="AJ39" s="45"/>
     </row>
     <row r="40" spans="1:36" ht="30.75" customHeight="1">
       <c r="A40" s="46"/>
-      <c r="B40" s="115"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="115"/>
-      <c r="G40" s="115"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
       <c r="H40" s="97"/>
       <c r="I40" s="97"/>
       <c r="J40" s="97"/>
@@ -5232,22 +5235,22 @@
       <c r="AA40" s="96"/>
       <c r="AB40" s="96"/>
       <c r="AC40" s="96"/>
-      <c r="AD40" s="115"/>
-      <c r="AE40" s="115"/>
-      <c r="AF40" s="115"/>
-      <c r="AG40" s="115"/>
-      <c r="AH40" s="115"/>
-      <c r="AI40" s="115"/>
+      <c r="AD40" s="113"/>
+      <c r="AE40" s="113"/>
+      <c r="AF40" s="113"/>
+      <c r="AG40" s="113"/>
+      <c r="AH40" s="113"/>
+      <c r="AI40" s="113"/>
       <c r="AJ40" s="45"/>
     </row>
     <row r="41" spans="1:36" ht="30.75" customHeight="1">
       <c r="A41" s="46"/>
-      <c r="B41" s="115"/>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="115"/>
-      <c r="G41" s="115"/>
+      <c r="B41" s="113"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="113"/>
+      <c r="G41" s="113"/>
       <c r="H41" s="97"/>
       <c r="I41" s="97"/>
       <c r="J41" s="97"/>
@@ -5270,22 +5273,22 @@
       <c r="AA41" s="96"/>
       <c r="AB41" s="96"/>
       <c r="AC41" s="96"/>
-      <c r="AD41" s="115"/>
-      <c r="AE41" s="115"/>
-      <c r="AF41" s="115"/>
-      <c r="AG41" s="115"/>
-      <c r="AH41" s="115"/>
-      <c r="AI41" s="115"/>
+      <c r="AD41" s="113"/>
+      <c r="AE41" s="113"/>
+      <c r="AF41" s="113"/>
+      <c r="AG41" s="113"/>
+      <c r="AH41" s="113"/>
+      <c r="AI41" s="113"/>
       <c r="AJ41" s="45"/>
     </row>
     <row r="42" spans="1:36" ht="30.75" customHeight="1">
       <c r="A42" s="46"/>
-      <c r="B42" s="115"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="115"/>
+      <c r="B42" s="113"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="113"/>
+      <c r="F42" s="113"/>
+      <c r="G42" s="113"/>
       <c r="H42" s="97"/>
       <c r="I42" s="97"/>
       <c r="J42" s="97"/>
@@ -5308,22 +5311,22 @@
       <c r="AA42" s="96"/>
       <c r="AB42" s="96"/>
       <c r="AC42" s="96"/>
-      <c r="AD42" s="115"/>
-      <c r="AE42" s="115"/>
-      <c r="AF42" s="115"/>
-      <c r="AG42" s="115"/>
-      <c r="AH42" s="115"/>
-      <c r="AI42" s="115"/>
+      <c r="AD42" s="113"/>
+      <c r="AE42" s="113"/>
+      <c r="AF42" s="113"/>
+      <c r="AG42" s="113"/>
+      <c r="AH42" s="113"/>
+      <c r="AI42" s="113"/>
       <c r="AJ42" s="45"/>
     </row>
     <row r="43" spans="1:36" ht="30.75" customHeight="1">
       <c r="A43" s="46"/>
-      <c r="B43" s="115"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="115"/>
-      <c r="G43" s="115"/>
+      <c r="B43" s="113"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="113"/>
+      <c r="G43" s="113"/>
       <c r="H43" s="97"/>
       <c r="I43" s="97"/>
       <c r="J43" s="97"/>
@@ -5346,22 +5349,22 @@
       <c r="AA43" s="96"/>
       <c r="AB43" s="96"/>
       <c r="AC43" s="96"/>
-      <c r="AD43" s="115"/>
-      <c r="AE43" s="115"/>
-      <c r="AF43" s="115"/>
-      <c r="AG43" s="115"/>
-      <c r="AH43" s="115"/>
-      <c r="AI43" s="115"/>
+      <c r="AD43" s="113"/>
+      <c r="AE43" s="113"/>
+      <c r="AF43" s="113"/>
+      <c r="AG43" s="113"/>
+      <c r="AH43" s="113"/>
+      <c r="AI43" s="113"/>
       <c r="AJ43" s="45"/>
     </row>
     <row r="44" spans="1:36" ht="30.75" customHeight="1">
       <c r="A44" s="46"/>
-      <c r="B44" s="115"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="115"/>
-      <c r="G44" s="115"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
+      <c r="G44" s="113"/>
       <c r="H44" s="97"/>
       <c r="I44" s="97"/>
       <c r="J44" s="97"/>
@@ -5384,22 +5387,22 @@
       <c r="AA44" s="96"/>
       <c r="AB44" s="96"/>
       <c r="AC44" s="96"/>
-      <c r="AD44" s="115"/>
-      <c r="AE44" s="115"/>
-      <c r="AF44" s="115"/>
-      <c r="AG44" s="115"/>
-      <c r="AH44" s="115"/>
-      <c r="AI44" s="115"/>
+      <c r="AD44" s="113"/>
+      <c r="AE44" s="113"/>
+      <c r="AF44" s="113"/>
+      <c r="AG44" s="113"/>
+      <c r="AH44" s="113"/>
+      <c r="AI44" s="113"/>
       <c r="AJ44" s="45"/>
     </row>
     <row r="45" spans="1:36" ht="30.75" customHeight="1">
       <c r="A45" s="46"/>
-      <c r="B45" s="115"/>
-      <c r="C45" s="115"/>
-      <c r="D45" s="115"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="115"/>
-      <c r="G45" s="115"/>
+      <c r="B45" s="113"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="113"/>
+      <c r="F45" s="113"/>
+      <c r="G45" s="113"/>
       <c r="H45" s="97"/>
       <c r="I45" s="97"/>
       <c r="J45" s="97"/>
@@ -5422,22 +5425,22 @@
       <c r="AA45" s="96"/>
       <c r="AB45" s="96"/>
       <c r="AC45" s="96"/>
-      <c r="AD45" s="115"/>
-      <c r="AE45" s="115"/>
-      <c r="AF45" s="115"/>
-      <c r="AG45" s="115"/>
-      <c r="AH45" s="115"/>
-      <c r="AI45" s="115"/>
+      <c r="AD45" s="113"/>
+      <c r="AE45" s="113"/>
+      <c r="AF45" s="113"/>
+      <c r="AG45" s="113"/>
+      <c r="AH45" s="113"/>
+      <c r="AI45" s="113"/>
       <c r="AJ45" s="45"/>
     </row>
     <row r="46" spans="1:36" ht="30.75" customHeight="1">
       <c r="A46" s="43"/>
-      <c r="B46" s="115"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="115"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="115"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="113"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="113"/>
+      <c r="F46" s="113"/>
+      <c r="G46" s="113"/>
       <c r="H46" s="99"/>
       <c r="I46" s="99"/>
       <c r="J46" s="99"/>
@@ -5446,12 +5449,12 @@
       <c r="N46" s="100"/>
       <c r="Q46" s="28"/>
       <c r="R46" s="101"/>
-      <c r="AD46" s="115"/>
-      <c r="AE46" s="115"/>
-      <c r="AF46" s="115"/>
-      <c r="AG46" s="115"/>
-      <c r="AH46" s="115"/>
-      <c r="AI46" s="115"/>
+      <c r="AD46" s="113"/>
+      <c r="AE46" s="113"/>
+      <c r="AF46" s="113"/>
+      <c r="AG46" s="113"/>
+      <c r="AH46" s="113"/>
+      <c r="AI46" s="113"/>
       <c r="AJ46" s="45"/>
     </row>
     <row r="47" spans="1:36" ht="30.75" customHeight="1" thickBot="1">
@@ -5510,21 +5513,21 @@
       <c r="G49" s="80"/>
       <c r="H49" s="80"/>
       <c r="I49" s="80"/>
-      <c r="J49" s="126" t="s">
+      <c r="J49" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="K49" s="126"/>
-      <c r="L49" s="126"/>
-      <c r="M49" s="126" t="s">
+      <c r="K49" s="122"/>
+      <c r="L49" s="122"/>
+      <c r="M49" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="N49" s="126"/>
-      <c r="O49" s="126"/>
-      <c r="P49" s="126" t="s">
+      <c r="N49" s="122"/>
+      <c r="O49" s="122"/>
+      <c r="P49" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="Q49" s="126"/>
-      <c r="R49" s="126"/>
+      <c r="Q49" s="122"/>
+      <c r="R49" s="122"/>
       <c r="S49" s="90"/>
       <c r="T49" s="36"/>
       <c r="AF49" s="80"/>
@@ -5535,40 +5538,42 @@
     </row>
     <row r="50" spans="1:54" ht="30.75" customHeight="1">
       <c r="A50" s="14"/>
-      <c r="B50" s="166" t="s">
+      <c r="B50" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="166"/>
-      <c r="D50" s="166"/>
-      <c r="E50" s="166"/>
-      <c r="F50" s="166"/>
-      <c r="G50" s="166"/>
-      <c r="H50" s="166"/>
-      <c r="I50" s="166"/>
-      <c r="J50" s="126"/>
-      <c r="K50" s="126"/>
-      <c r="L50" s="126"/>
-      <c r="M50" s="126"/>
-      <c r="N50" s="126"/>
-      <c r="O50" s="126"/>
-      <c r="P50" s="132"/>
-      <c r="Q50" s="132"/>
-      <c r="R50" s="132"/>
+      <c r="C50" s="121"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="121"/>
+      <c r="F50" s="121"/>
+      <c r="G50" s="121"/>
+      <c r="H50" s="121"/>
+      <c r="I50" s="121"/>
+      <c r="J50" s="122" t="s">
+        <v>61</v>
+      </c>
+      <c r="K50" s="122"/>
+      <c r="L50" s="122"/>
+      <c r="M50" s="122"/>
+      <c r="N50" s="122"/>
+      <c r="O50" s="122"/>
+      <c r="P50" s="123"/>
+      <c r="Q50" s="123"/>
+      <c r="R50" s="123"/>
       <c r="S50" s="89"/>
       <c r="T50" s="38"/>
-      <c r="U50" s="165" t="s">
+      <c r="U50" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="V50" s="165"/>
-      <c r="W50" s="165"/>
-      <c r="X50" s="165"/>
-      <c r="Y50" s="165"/>
-      <c r="Z50" s="129"/>
-      <c r="AA50" s="129"/>
-      <c r="AB50" s="129"/>
-      <c r="AC50" s="129"/>
-      <c r="AD50" s="129"/>
-      <c r="AE50" s="129"/>
+      <c r="V50" s="125"/>
+      <c r="W50" s="125"/>
+      <c r="X50" s="125"/>
+      <c r="Y50" s="125"/>
+      <c r="Z50" s="120"/>
+      <c r="AA50" s="120"/>
+      <c r="AB50" s="120"/>
+      <c r="AC50" s="120"/>
+      <c r="AD50" s="120"/>
+      <c r="AE50" s="120"/>
       <c r="AF50" s="92"/>
       <c r="AG50" s="88"/>
       <c r="AH50" s="88"/>
@@ -5577,25 +5582,27 @@
     </row>
     <row r="51" spans="1:54" ht="30.75" customHeight="1">
       <c r="A51" s="14"/>
-      <c r="B51" s="166" t="s">
+      <c r="B51" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="166"/>
-      <c r="D51" s="166"/>
-      <c r="E51" s="166"/>
-      <c r="F51" s="166"/>
-      <c r="G51" s="166"/>
-      <c r="H51" s="166"/>
-      <c r="I51" s="166"/>
-      <c r="J51" s="126"/>
-      <c r="K51" s="126"/>
-      <c r="L51" s="126"/>
-      <c r="M51" s="126"/>
-      <c r="N51" s="126"/>
-      <c r="O51" s="126"/>
-      <c r="P51" s="132"/>
-      <c r="Q51" s="132"/>
-      <c r="R51" s="132"/>
+      <c r="C51" s="121"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="121"/>
+      <c r="F51" s="121"/>
+      <c r="G51" s="121"/>
+      <c r="H51" s="121"/>
+      <c r="I51" s="121"/>
+      <c r="J51" s="122" t="s">
+        <v>61</v>
+      </c>
+      <c r="K51" s="122"/>
+      <c r="L51" s="122"/>
+      <c r="M51" s="122"/>
+      <c r="N51" s="122"/>
+      <c r="O51" s="122"/>
+      <c r="P51" s="123"/>
+      <c r="Q51" s="123"/>
+      <c r="R51" s="123"/>
       <c r="S51" s="89"/>
       <c r="T51" s="39"/>
       <c r="U51" s="91" t="s">
@@ -5605,12 +5612,12 @@
       <c r="W51" s="91"/>
       <c r="X51" s="91"/>
       <c r="Y51" s="91"/>
-      <c r="Z51" s="128"/>
-      <c r="AA51" s="128"/>
-      <c r="AB51" s="128"/>
-      <c r="AC51" s="128"/>
-      <c r="AD51" s="128"/>
-      <c r="AE51" s="128"/>
+      <c r="Z51" s="124"/>
+      <c r="AA51" s="124"/>
+      <c r="AB51" s="124"/>
+      <c r="AC51" s="124"/>
+      <c r="AD51" s="124"/>
+      <c r="AE51" s="124"/>
       <c r="AF51" s="92"/>
       <c r="AG51" s="88"/>
       <c r="AH51" s="88"/>
@@ -5619,25 +5626,27 @@
     </row>
     <row r="52" spans="1:54" ht="30.75" customHeight="1">
       <c r="A52" s="14"/>
-      <c r="B52" s="166" t="s">
+      <c r="B52" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="166"/>
-      <c r="D52" s="166"/>
-      <c r="E52" s="166"/>
-      <c r="F52" s="166"/>
-      <c r="G52" s="166"/>
-      <c r="H52" s="166"/>
-      <c r="I52" s="166"/>
-      <c r="J52" s="126"/>
-      <c r="K52" s="126"/>
-      <c r="L52" s="126"/>
-      <c r="M52" s="126"/>
-      <c r="N52" s="126"/>
-      <c r="O52" s="126"/>
-      <c r="P52" s="132"/>
-      <c r="Q52" s="132"/>
-      <c r="R52" s="132"/>
+      <c r="C52" s="121"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="121"/>
+      <c r="F52" s="121"/>
+      <c r="G52" s="121"/>
+      <c r="H52" s="121"/>
+      <c r="I52" s="121"/>
+      <c r="J52" s="122" t="s">
+        <v>61</v>
+      </c>
+      <c r="K52" s="122"/>
+      <c r="L52" s="122"/>
+      <c r="M52" s="122"/>
+      <c r="N52" s="122"/>
+      <c r="O52" s="122"/>
+      <c r="P52" s="123"/>
+      <c r="Q52" s="123"/>
+      <c r="R52" s="123"/>
       <c r="S52" s="89"/>
       <c r="T52" s="38"/>
       <c r="U52" s="91" t="s">
@@ -5647,12 +5656,12 @@
       <c r="W52" s="91"/>
       <c r="X52" s="91"/>
       <c r="Y52" s="91"/>
-      <c r="Z52" s="128"/>
-      <c r="AA52" s="128"/>
-      <c r="AB52" s="128"/>
-      <c r="AC52" s="128"/>
-      <c r="AD52" s="128"/>
-      <c r="AE52" s="128"/>
+      <c r="Z52" s="124"/>
+      <c r="AA52" s="124"/>
+      <c r="AB52" s="124"/>
+      <c r="AC52" s="124"/>
+      <c r="AD52" s="124"/>
+      <c r="AE52" s="124"/>
       <c r="AF52" s="88"/>
       <c r="AG52" s="87"/>
       <c r="AH52" s="87"/>
@@ -5661,25 +5670,27 @@
     </row>
     <row r="53" spans="1:54" ht="30.75" customHeight="1">
       <c r="A53" s="14"/>
-      <c r="B53" s="166" t="s">
+      <c r="B53" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="166"/>
-      <c r="D53" s="166"/>
-      <c r="E53" s="166"/>
-      <c r="F53" s="166"/>
-      <c r="G53" s="166"/>
-      <c r="H53" s="166"/>
-      <c r="I53" s="166"/>
-      <c r="J53" s="126"/>
-      <c r="K53" s="126"/>
-      <c r="L53" s="126"/>
-      <c r="M53" s="126"/>
-      <c r="N53" s="126"/>
-      <c r="O53" s="126"/>
-      <c r="P53" s="132"/>
-      <c r="Q53" s="132"/>
-      <c r="R53" s="132"/>
+      <c r="C53" s="121"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="121"/>
+      <c r="F53" s="121"/>
+      <c r="G53" s="121"/>
+      <c r="H53" s="121"/>
+      <c r="I53" s="121"/>
+      <c r="J53" s="122" t="s">
+        <v>61</v>
+      </c>
+      <c r="K53" s="122"/>
+      <c r="L53" s="122"/>
+      <c r="M53" s="122"/>
+      <c r="N53" s="122"/>
+      <c r="O53" s="122"/>
+      <c r="P53" s="123"/>
+      <c r="Q53" s="123"/>
+      <c r="R53" s="123"/>
       <c r="S53" s="89"/>
       <c r="T53" s="39"/>
       <c r="U53" s="91" t="s">
@@ -5689,12 +5700,12 @@
       <c r="W53" s="91"/>
       <c r="X53" s="91"/>
       <c r="Y53" s="91"/>
-      <c r="Z53" s="129"/>
-      <c r="AA53" s="129"/>
-      <c r="AB53" s="129"/>
-      <c r="AC53" s="129"/>
-      <c r="AD53" s="129"/>
-      <c r="AE53" s="129"/>
+      <c r="Z53" s="120"/>
+      <c r="AA53" s="120"/>
+      <c r="AB53" s="120"/>
+      <c r="AC53" s="120"/>
+      <c r="AD53" s="120"/>
+      <c r="AE53" s="120"/>
       <c r="AF53" s="92"/>
       <c r="AG53" s="88"/>
       <c r="AH53" s="88"/>
@@ -5703,25 +5714,27 @@
     </row>
     <row r="54" spans="1:54" ht="30.75" customHeight="1">
       <c r="A54" s="14"/>
-      <c r="B54" s="166" t="s">
+      <c r="B54" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="C54" s="166"/>
-      <c r="D54" s="166"/>
-      <c r="E54" s="166"/>
-      <c r="F54" s="166"/>
-      <c r="G54" s="166"/>
-      <c r="H54" s="166"/>
-      <c r="I54" s="166"/>
-      <c r="J54" s="126"/>
-      <c r="K54" s="126"/>
-      <c r="L54" s="126"/>
-      <c r="M54" s="126"/>
-      <c r="N54" s="126"/>
-      <c r="O54" s="126"/>
-      <c r="P54" s="132"/>
-      <c r="Q54" s="132"/>
-      <c r="R54" s="132"/>
+      <c r="C54" s="121"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="121"/>
+      <c r="F54" s="121"/>
+      <c r="G54" s="121"/>
+      <c r="H54" s="121"/>
+      <c r="I54" s="121"/>
+      <c r="J54" s="122" t="s">
+        <v>61</v>
+      </c>
+      <c r="K54" s="122"/>
+      <c r="L54" s="122"/>
+      <c r="M54" s="122"/>
+      <c r="N54" s="122"/>
+      <c r="O54" s="122"/>
+      <c r="P54" s="123"/>
+      <c r="Q54" s="123"/>
+      <c r="R54" s="123"/>
       <c r="S54" s="89"/>
       <c r="T54" s="40"/>
       <c r="U54" s="91" t="s">
@@ -5731,12 +5744,12 @@
       <c r="W54" s="91"/>
       <c r="X54" s="91"/>
       <c r="Y54" s="91"/>
-      <c r="Z54" s="172"/>
-      <c r="AA54" s="129"/>
-      <c r="AB54" s="129"/>
-      <c r="AC54" s="129"/>
-      <c r="AD54" s="129"/>
-      <c r="AE54" s="129"/>
+      <c r="Z54" s="119"/>
+      <c r="AA54" s="120"/>
+      <c r="AB54" s="120"/>
+      <c r="AC54" s="120"/>
+      <c r="AD54" s="120"/>
+      <c r="AE54" s="120"/>
       <c r="AF54" s="92"/>
       <c r="AG54" s="88"/>
       <c r="AH54" s="88"/>
@@ -5745,25 +5758,27 @@
     </row>
     <row r="55" spans="1:54" ht="27" customHeight="1">
       <c r="A55" s="14"/>
-      <c r="B55" s="166" t="s">
+      <c r="B55" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="C55" s="166"/>
-      <c r="D55" s="166"/>
-      <c r="E55" s="166"/>
-      <c r="F55" s="166"/>
-      <c r="G55" s="166"/>
-      <c r="H55" s="166"/>
-      <c r="I55" s="166"/>
-      <c r="J55" s="126"/>
-      <c r="K55" s="126"/>
-      <c r="L55" s="126"/>
-      <c r="M55" s="126"/>
-      <c r="N55" s="126"/>
-      <c r="O55" s="126"/>
-      <c r="P55" s="132"/>
-      <c r="Q55" s="132"/>
-      <c r="R55" s="132"/>
+      <c r="C55" s="121"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="121"/>
+      <c r="F55" s="121"/>
+      <c r="G55" s="121"/>
+      <c r="H55" s="121"/>
+      <c r="I55" s="121"/>
+      <c r="J55" s="122" t="s">
+        <v>61</v>
+      </c>
+      <c r="K55" s="122"/>
+      <c r="L55" s="122"/>
+      <c r="M55" s="122"/>
+      <c r="N55" s="122"/>
+      <c r="O55" s="122"/>
+      <c r="P55" s="123"/>
+      <c r="Q55" s="123"/>
+      <c r="R55" s="123"/>
       <c r="S55" s="102"/>
       <c r="T55" s="39"/>
       <c r="U55" s="88"/>
@@ -5838,37 +5853,37 @@
       <c r="C58" s="50"/>
       <c r="D58" s="50"/>
       <c r="E58" s="50"/>
-      <c r="F58" s="170"/>
-      <c r="G58" s="170"/>
-      <c r="H58" s="170"/>
-      <c r="I58" s="170"/>
-      <c r="J58" s="170"/>
-      <c r="K58" s="170"/>
-      <c r="L58" s="170"/>
-      <c r="M58" s="170"/>
-      <c r="N58" s="170"/>
-      <c r="O58" s="170"/>
-      <c r="P58" s="170"/>
-      <c r="Q58" s="170"/>
-      <c r="R58" s="170"/>
-      <c r="S58" s="170"/>
-      <c r="T58" s="170"/>
-      <c r="U58" s="170"/>
-      <c r="V58" s="170"/>
-      <c r="W58" s="170"/>
-      <c r="X58" s="170"/>
-      <c r="Y58" s="170"/>
-      <c r="Z58" s="170"/>
-      <c r="AA58" s="170"/>
-      <c r="AB58" s="170"/>
-      <c r="AC58" s="170"/>
-      <c r="AD58" s="170"/>
-      <c r="AE58" s="170"/>
-      <c r="AF58" s="170"/>
-      <c r="AG58" s="170"/>
-      <c r="AH58" s="170"/>
-      <c r="AI58" s="170"/>
-      <c r="AJ58" s="171"/>
+      <c r="F58" s="117"/>
+      <c r="G58" s="117"/>
+      <c r="H58" s="117"/>
+      <c r="I58" s="117"/>
+      <c r="J58" s="117"/>
+      <c r="K58" s="117"/>
+      <c r="L58" s="117"/>
+      <c r="M58" s="117"/>
+      <c r="N58" s="117"/>
+      <c r="O58" s="117"/>
+      <c r="P58" s="117"/>
+      <c r="Q58" s="117"/>
+      <c r="R58" s="117"/>
+      <c r="S58" s="117"/>
+      <c r="T58" s="117"/>
+      <c r="U58" s="117"/>
+      <c r="V58" s="117"/>
+      <c r="W58" s="117"/>
+      <c r="X58" s="117"/>
+      <c r="Y58" s="117"/>
+      <c r="Z58" s="117"/>
+      <c r="AA58" s="117"/>
+      <c r="AB58" s="117"/>
+      <c r="AC58" s="117"/>
+      <c r="AD58" s="117"/>
+      <c r="AE58" s="117"/>
+      <c r="AF58" s="117"/>
+      <c r="AG58" s="117"/>
+      <c r="AH58" s="117"/>
+      <c r="AI58" s="117"/>
+      <c r="AJ58" s="118"/>
       <c r="AL58" s="48"/>
       <c r="AM58" s="48"/>
       <c r="AN58" s="48"/>
@@ -5981,14 +5996,14 @@
       <c r="AJ60" s="57"/>
     </row>
     <row r="61" spans="1:54" s="28" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A61" s="118" t="s">
+      <c r="A61" s="161" t="s">
         <v>52</v>
       </c>
-      <c r="B61" s="119"/>
-      <c r="C61" s="119"/>
-      <c r="D61" s="119"/>
-      <c r="E61" s="119"/>
-      <c r="F61" s="119"/>
+      <c r="B61" s="162"/>
+      <c r="C61" s="162"/>
+      <c r="D61" s="162"/>
+      <c r="E61" s="162"/>
+      <c r="F61" s="162"/>
       <c r="G61" s="58"/>
       <c r="H61" s="58"/>
       <c r="I61" s="58"/>
@@ -6014,17 +6029,17 @@
       <c r="Y61" s="58"/>
       <c r="Z61" s="58"/>
       <c r="AA61" s="58"/>
-      <c r="AB61" s="167" t="s">
+      <c r="AB61" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="AC61" s="168"/>
-      <c r="AD61" s="168"/>
-      <c r="AE61" s="168"/>
-      <c r="AF61" s="168"/>
-      <c r="AG61" s="168"/>
-      <c r="AH61" s="168"/>
-      <c r="AI61" s="168"/>
-      <c r="AJ61" s="169"/>
+      <c r="AC61" s="115"/>
+      <c r="AD61" s="115"/>
+      <c r="AE61" s="115"/>
+      <c r="AF61" s="115"/>
+      <c r="AG61" s="115"/>
+      <c r="AH61" s="115"/>
+      <c r="AI61" s="115"/>
+      <c r="AJ61" s="116"/>
     </row>
     <row r="62" spans="1:54" s="28" customFormat="1" ht="25.5" customHeight="1">
       <c r="A62" s="61" t="s">
@@ -6032,12 +6047,12 @@
       </c>
       <c r="B62" s="87"/>
       <c r="C62" s="91"/>
-      <c r="D62" s="116"/>
-      <c r="E62" s="116"/>
-      <c r="F62" s="116"/>
-      <c r="G62" s="116"/>
-      <c r="H62" s="116"/>
-      <c r="I62" s="117"/>
+      <c r="D62" s="159"/>
+      <c r="E62" s="159"/>
+      <c r="F62" s="159"/>
+      <c r="G62" s="159"/>
+      <c r="H62" s="159"/>
+      <c r="I62" s="160"/>
       <c r="J62" s="62" t="s">
         <v>1</v>
       </c>
@@ -6078,12 +6093,12 @@
       </c>
       <c r="B63" s="87"/>
       <c r="C63" s="91"/>
-      <c r="D63" s="120"/>
-      <c r="E63" s="120"/>
-      <c r="F63" s="120"/>
-      <c r="G63" s="120"/>
-      <c r="H63" s="120"/>
-      <c r="I63" s="114"/>
+      <c r="D63" s="163"/>
+      <c r="E63" s="163"/>
+      <c r="F63" s="163"/>
+      <c r="G63" s="163"/>
+      <c r="H63" s="163"/>
+      <c r="I63" s="112"/>
       <c r="J63" s="70" t="s">
         <v>2</v>
       </c>
@@ -6124,12 +6139,12 @@
       </c>
       <c r="B64" s="87"/>
       <c r="C64" s="88"/>
-      <c r="D64" s="121"/>
-      <c r="E64" s="120"/>
-      <c r="F64" s="120"/>
-      <c r="G64" s="120"/>
-      <c r="H64" s="120"/>
-      <c r="I64" s="114"/>
+      <c r="D64" s="164"/>
+      <c r="E64" s="163"/>
+      <c r="F64" s="163"/>
+      <c r="G64" s="163"/>
+      <c r="H64" s="163"/>
+      <c r="I64" s="112"/>
       <c r="J64" s="70" t="s">
         <v>3</v>
       </c>
@@ -6170,12 +6185,12 @@
       </c>
       <c r="B65" s="106"/>
       <c r="C65" s="107"/>
-      <c r="D65" s="122"/>
-      <c r="E65" s="122"/>
-      <c r="F65" s="122"/>
-      <c r="G65" s="122"/>
-      <c r="H65" s="122"/>
-      <c r="I65" s="123"/>
+      <c r="D65" s="165"/>
+      <c r="E65" s="165"/>
+      <c r="F65" s="165"/>
+      <c r="G65" s="165"/>
+      <c r="H65" s="165"/>
+      <c r="I65" s="166"/>
       <c r="J65" s="108" t="s">
         <v>4</v>
       </c>
@@ -6250,30 +6265,151 @@
     </row>
   </sheetData>
   <mergeCells count="193">
-    <mergeCell ref="AF33:AG33"/>
-    <mergeCell ref="AF34:AG34"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AH28:AI28"/>
-    <mergeCell ref="AH29:AI29"/>
-    <mergeCell ref="AH30:AI30"/>
-    <mergeCell ref="AH31:AI31"/>
-    <mergeCell ref="AH32:AI32"/>
-    <mergeCell ref="AH33:AI33"/>
-    <mergeCell ref="AH34:AI34"/>
-    <mergeCell ref="AH35:AI35"/>
-    <mergeCell ref="AF29:AG29"/>
-    <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="AF31:AG31"/>
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="AF40:AG40"/>
-    <mergeCell ref="AF41:AG41"/>
-    <mergeCell ref="AH41:AI41"/>
-    <mergeCell ref="AH38:AI38"/>
-    <mergeCell ref="AH39:AI39"/>
-    <mergeCell ref="AH40:AI40"/>
-    <mergeCell ref="AD39:AE39"/>
-    <mergeCell ref="AD40:AE40"/>
-    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="AF27:AG27"/>
+    <mergeCell ref="AH27:AI27"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="AD32:AE32"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="AD35:AE35"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="D63:I63"/>
+    <mergeCell ref="D64:I64"/>
+    <mergeCell ref="D65:I65"/>
+    <mergeCell ref="AE7:AJ7"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="Z51:AE51"/>
+    <mergeCell ref="Z53:AE53"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="AH36:AI36"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="A2:G6"/>
+    <mergeCell ref="H4:AD6"/>
+    <mergeCell ref="A8:AJ8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="I10:N10"/>
+    <mergeCell ref="W10:AB10"/>
+    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="W11:AB11"/>
+    <mergeCell ref="H2:AD3"/>
+    <mergeCell ref="AE2:AJ6"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="AH37:AI37"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="W12:AB12"/>
+    <mergeCell ref="W13:AB13"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="W19:AB19"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="W20:AB20"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="W21:AB21"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="W22:AB22"/>
+    <mergeCell ref="I13:N13"/>
+    <mergeCell ref="Q36:U36"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="AF39:AG39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="U50:Y50"/>
+    <mergeCell ref="Z50:AE50"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="AD41:AE41"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B51:I51"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:R55"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="Z52:AE52"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="AD46:AE46"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:O49"/>
     <mergeCell ref="AB61:AJ61"/>
     <mergeCell ref="F58:AJ58"/>
     <mergeCell ref="AF46:AG46"/>
@@ -6298,151 +6434,30 @@
     <mergeCell ref="P51:R51"/>
     <mergeCell ref="J52:L52"/>
     <mergeCell ref="AF42:AG42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="M54:O54"/>
-    <mergeCell ref="P54:R54"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:R55"/>
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="Z52:AE52"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="AD46:AE46"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="U50:Y50"/>
-    <mergeCell ref="Z50:AE50"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="AD41:AE41"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="B51:I51"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="AH37:AI37"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="W12:AB12"/>
-    <mergeCell ref="W13:AB13"/>
-    <mergeCell ref="I19:N19"/>
-    <mergeCell ref="W19:AB19"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="W20:AB20"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="W21:AB21"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="W22:AB22"/>
-    <mergeCell ref="I13:N13"/>
-    <mergeCell ref="Q36:U36"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="AF39:AG39"/>
-    <mergeCell ref="A2:G6"/>
-    <mergeCell ref="H4:AD6"/>
-    <mergeCell ref="A8:AJ8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="I10:N10"/>
-    <mergeCell ref="W10:AB10"/>
-    <mergeCell ref="I11:N11"/>
-    <mergeCell ref="W11:AB11"/>
-    <mergeCell ref="H2:AD3"/>
-    <mergeCell ref="AE2:AJ6"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="D63:I63"/>
-    <mergeCell ref="D64:I64"/>
-    <mergeCell ref="D65:I65"/>
-    <mergeCell ref="AE7:AJ7"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="Z51:AE51"/>
-    <mergeCell ref="Z53:AE53"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="AH36:AI36"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="AD32:AE32"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="AD34:AE34"/>
-    <mergeCell ref="AD35:AE35"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="AH27:AI27"/>
-    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="AF40:AG40"/>
+    <mergeCell ref="AF41:AG41"/>
+    <mergeCell ref="AH41:AI41"/>
+    <mergeCell ref="AH38:AI38"/>
+    <mergeCell ref="AH39:AI39"/>
+    <mergeCell ref="AH40:AI40"/>
+    <mergeCell ref="AD39:AE39"/>
+    <mergeCell ref="AD40:AE40"/>
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="AF33:AG33"/>
+    <mergeCell ref="AF34:AG34"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AH28:AI28"/>
+    <mergeCell ref="AH29:AI29"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="AH31:AI31"/>
+    <mergeCell ref="AH32:AI32"/>
+    <mergeCell ref="AH33:AI33"/>
+    <mergeCell ref="AH34:AI34"/>
+    <mergeCell ref="AH35:AI35"/>
+    <mergeCell ref="AF29:AG29"/>
+    <mergeCell ref="AF30:AG30"/>
+    <mergeCell ref="AF31:AG31"/>
+    <mergeCell ref="AF32:AG32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/wksp_T_RA_PP/res/PP/Protocolo Punto a Punto y Conexionado.xlsx
+++ b/wksp_T_RA_PP/res/PP/Protocolo Punto a Punto y Conexionado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vichaoss\PycharmProjects\Protocol_Workshop\wksp_T_RA_PP\res\PP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE99FFF1-184A-460B-B7B1-C86888DAA275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B9035C-1A2F-43FE-8DE6-AA936D0310D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Punto a Punto y Conexionado" sheetId="1" r:id="rId1"/>
@@ -1031,6 +1031,12 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1040,56 +1046,56 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1151,9 +1157,6 @@
     <xf numFmtId="171" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1181,46 +1184,43 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3711,198 +3711,198 @@
       <c r="AJ1" s="3"/>
     </row>
     <row r="2" spans="1:36" ht="46.5" customHeight="1">
-      <c r="A2" s="131"/>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="137" t="s">
+      <c r="A2" s="133"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="138"/>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138"/>
-      <c r="X2" s="138"/>
-      <c r="Y2" s="138"/>
-      <c r="Z2" s="138"/>
-      <c r="AA2" s="138"/>
-      <c r="AB2" s="138"/>
-      <c r="AC2" s="138"/>
-      <c r="AD2" s="139"/>
-      <c r="AE2" s="150"/>
-      <c r="AF2" s="151"/>
-      <c r="AG2" s="151"/>
-      <c r="AH2" s="151"/>
-      <c r="AI2" s="151"/>
-      <c r="AJ2" s="152"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="140"/>
+      <c r="Y2" s="140"/>
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="140"/>
+      <c r="AB2" s="140"/>
+      <c r="AC2" s="140"/>
+      <c r="AD2" s="141"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="152"/>
+      <c r="AH2" s="152"/>
+      <c r="AI2" s="152"/>
+      <c r="AJ2" s="153"/>
     </row>
     <row r="3" spans="1:36" ht="42" customHeight="1" thickBot="1">
-      <c r="A3" s="133"/>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
-      <c r="M3" s="141"/>
-      <c r="N3" s="141"/>
-      <c r="O3" s="141"/>
-      <c r="P3" s="141"/>
-      <c r="Q3" s="141"/>
-      <c r="R3" s="141"/>
-      <c r="S3" s="141"/>
-      <c r="T3" s="141"/>
-      <c r="U3" s="141"/>
-      <c r="V3" s="141"/>
-      <c r="W3" s="141"/>
-      <c r="X3" s="141"/>
-      <c r="Y3" s="141"/>
-      <c r="Z3" s="141"/>
-      <c r="AA3" s="141"/>
-      <c r="AB3" s="141"/>
-      <c r="AC3" s="141"/>
-      <c r="AD3" s="142"/>
-      <c r="AE3" s="153"/>
-      <c r="AF3" s="154"/>
-      <c r="AG3" s="154"/>
-      <c r="AH3" s="154"/>
-      <c r="AI3" s="154"/>
-      <c r="AJ3" s="155"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="143"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="143"/>
+      <c r="S3" s="143"/>
+      <c r="T3" s="143"/>
+      <c r="U3" s="143"/>
+      <c r="V3" s="143"/>
+      <c r="W3" s="143"/>
+      <c r="X3" s="143"/>
+      <c r="Y3" s="143"/>
+      <c r="Z3" s="143"/>
+      <c r="AA3" s="143"/>
+      <c r="AB3" s="143"/>
+      <c r="AC3" s="143"/>
+      <c r="AD3" s="144"/>
+      <c r="AE3" s="154"/>
+      <c r="AF3" s="155"/>
+      <c r="AG3" s="155"/>
+      <c r="AH3" s="155"/>
+      <c r="AI3" s="155"/>
+      <c r="AJ3" s="156"/>
     </row>
     <row r="4" spans="1:36" ht="21" customHeight="1">
-      <c r="A4" s="133"/>
-      <c r="B4" s="134"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="137" t="s">
+      <c r="A4" s="135"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="138"/>
-      <c r="J4" s="138"/>
-      <c r="K4" s="138"/>
-      <c r="L4" s="138"/>
-      <c r="M4" s="138"/>
-      <c r="N4" s="138"/>
-      <c r="O4" s="138"/>
-      <c r="P4" s="138"/>
-      <c r="Q4" s="138"/>
-      <c r="R4" s="138"/>
-      <c r="S4" s="138"/>
-      <c r="T4" s="138"/>
-      <c r="U4" s="138"/>
-      <c r="V4" s="138"/>
-      <c r="W4" s="138"/>
-      <c r="X4" s="138"/>
-      <c r="Y4" s="138"/>
-      <c r="Z4" s="138"/>
-      <c r="AA4" s="138"/>
-      <c r="AB4" s="138"/>
-      <c r="AC4" s="138"/>
-      <c r="AD4" s="139"/>
-      <c r="AE4" s="153"/>
-      <c r="AF4" s="154"/>
-      <c r="AG4" s="154"/>
-      <c r="AH4" s="154"/>
-      <c r="AI4" s="154"/>
-      <c r="AJ4" s="155"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="140"/>
+      <c r="P4" s="140"/>
+      <c r="Q4" s="140"/>
+      <c r="R4" s="140"/>
+      <c r="S4" s="140"/>
+      <c r="T4" s="140"/>
+      <c r="U4" s="140"/>
+      <c r="V4" s="140"/>
+      <c r="W4" s="140"/>
+      <c r="X4" s="140"/>
+      <c r="Y4" s="140"/>
+      <c r="Z4" s="140"/>
+      <c r="AA4" s="140"/>
+      <c r="AB4" s="140"/>
+      <c r="AC4" s="140"/>
+      <c r="AD4" s="141"/>
+      <c r="AE4" s="154"/>
+      <c r="AF4" s="155"/>
+      <c r="AG4" s="155"/>
+      <c r="AH4" s="155"/>
+      <c r="AI4" s="155"/>
+      <c r="AJ4" s="156"/>
     </row>
     <row r="5" spans="1:36" ht="22.5" customHeight="1">
-      <c r="A5" s="133"/>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="141"/>
-      <c r="J5" s="141"/>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="141"/>
-      <c r="N5" s="141"/>
-      <c r="O5" s="141"/>
-      <c r="P5" s="141"/>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="141"/>
-      <c r="S5" s="141"/>
-      <c r="T5" s="141"/>
-      <c r="U5" s="141"/>
-      <c r="V5" s="141"/>
-      <c r="W5" s="141"/>
-      <c r="X5" s="141"/>
-      <c r="Y5" s="141"/>
-      <c r="Z5" s="141"/>
-      <c r="AA5" s="141"/>
-      <c r="AB5" s="141"/>
-      <c r="AC5" s="141"/>
-      <c r="AD5" s="142"/>
-      <c r="AE5" s="153"/>
-      <c r="AF5" s="154"/>
-      <c r="AG5" s="154"/>
-      <c r="AH5" s="154"/>
-      <c r="AI5" s="154"/>
-      <c r="AJ5" s="155"/>
+      <c r="A5" s="135"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="143"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="143"/>
+      <c r="P5" s="143"/>
+      <c r="Q5" s="143"/>
+      <c r="R5" s="143"/>
+      <c r="S5" s="143"/>
+      <c r="T5" s="143"/>
+      <c r="U5" s="143"/>
+      <c r="V5" s="143"/>
+      <c r="W5" s="143"/>
+      <c r="X5" s="143"/>
+      <c r="Y5" s="143"/>
+      <c r="Z5" s="143"/>
+      <c r="AA5" s="143"/>
+      <c r="AB5" s="143"/>
+      <c r="AC5" s="143"/>
+      <c r="AD5" s="144"/>
+      <c r="AE5" s="154"/>
+      <c r="AF5" s="155"/>
+      <c r="AG5" s="155"/>
+      <c r="AH5" s="155"/>
+      <c r="AI5" s="155"/>
+      <c r="AJ5" s="156"/>
     </row>
     <row r="6" spans="1:36" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="135"/>
-      <c r="B6" s="136"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="144"/>
-      <c r="O6" s="144"/>
-      <c r="P6" s="144"/>
-      <c r="Q6" s="144"/>
-      <c r="R6" s="144"/>
-      <c r="S6" s="144"/>
-      <c r="T6" s="144"/>
-      <c r="U6" s="144"/>
-      <c r="V6" s="144"/>
-      <c r="W6" s="144"/>
-      <c r="X6" s="144"/>
-      <c r="Y6" s="144"/>
-      <c r="Z6" s="144"/>
-      <c r="AA6" s="144"/>
-      <c r="AB6" s="144"/>
-      <c r="AC6" s="144"/>
-      <c r="AD6" s="145"/>
-      <c r="AE6" s="156"/>
-      <c r="AF6" s="157"/>
-      <c r="AG6" s="157"/>
-      <c r="AH6" s="157"/>
-      <c r="AI6" s="157"/>
-      <c r="AJ6" s="158"/>
+      <c r="A6" s="137"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="146"/>
+      <c r="N6" s="146"/>
+      <c r="O6" s="146"/>
+      <c r="P6" s="146"/>
+      <c r="Q6" s="146"/>
+      <c r="R6" s="146"/>
+      <c r="S6" s="146"/>
+      <c r="T6" s="146"/>
+      <c r="U6" s="146"/>
+      <c r="V6" s="146"/>
+      <c r="W6" s="146"/>
+      <c r="X6" s="146"/>
+      <c r="Y6" s="146"/>
+      <c r="Z6" s="146"/>
+      <c r="AA6" s="146"/>
+      <c r="AB6" s="146"/>
+      <c r="AC6" s="146"/>
+      <c r="AD6" s="147"/>
+      <c r="AE6" s="157"/>
+      <c r="AF6" s="158"/>
+      <c r="AG6" s="158"/>
+      <c r="AH6" s="158"/>
+      <c r="AI6" s="158"/>
+      <c r="AJ6" s="159"/>
     </row>
     <row r="7" spans="1:36" ht="18.600000000000001" thickBot="1">
       <c r="A7" s="5"/>
@@ -3935,52 +3935,52 @@
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
-      <c r="AE7" s="167" t="s">
+      <c r="AE7" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="AF7" s="167"/>
-      <c r="AG7" s="167"/>
-      <c r="AH7" s="167"/>
-      <c r="AI7" s="167"/>
-      <c r="AJ7" s="168"/>
+      <c r="AF7" s="124"/>
+      <c r="AG7" s="124"/>
+      <c r="AH7" s="124"/>
+      <c r="AI7" s="124"/>
+      <c r="AJ7" s="125"/>
     </row>
     <row r="8" spans="1:36" ht="8.25" customHeight="1" thickBot="1">
-      <c r="A8" s="146"/>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="147"/>
-      <c r="K8" s="147"/>
-      <c r="L8" s="147"/>
-      <c r="M8" s="147"/>
-      <c r="N8" s="147"/>
-      <c r="O8" s="147"/>
-      <c r="P8" s="147"/>
-      <c r="Q8" s="147"/>
-      <c r="R8" s="147"/>
-      <c r="S8" s="147"/>
-      <c r="T8" s="147"/>
-      <c r="U8" s="147"/>
-      <c r="V8" s="147"/>
-      <c r="W8" s="147"/>
-      <c r="X8" s="147"/>
-      <c r="Y8" s="147"/>
-      <c r="Z8" s="147"/>
-      <c r="AA8" s="147"/>
-      <c r="AB8" s="147"/>
-      <c r="AC8" s="147"/>
-      <c r="AD8" s="147"/>
-      <c r="AE8" s="147"/>
-      <c r="AF8" s="147"/>
-      <c r="AG8" s="147"/>
-      <c r="AH8" s="147"/>
-      <c r="AI8" s="147"/>
-      <c r="AJ8" s="148"/>
+      <c r="A8" s="148"/>
+      <c r="B8" s="149"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="149"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="149"/>
+      <c r="N8" s="149"/>
+      <c r="O8" s="149"/>
+      <c r="P8" s="149"/>
+      <c r="Q8" s="149"/>
+      <c r="R8" s="149"/>
+      <c r="S8" s="149"/>
+      <c r="T8" s="149"/>
+      <c r="U8" s="149"/>
+      <c r="V8" s="149"/>
+      <c r="W8" s="149"/>
+      <c r="X8" s="149"/>
+      <c r="Y8" s="149"/>
+      <c r="Z8" s="149"/>
+      <c r="AA8" s="149"/>
+      <c r="AB8" s="149"/>
+      <c r="AC8" s="149"/>
+      <c r="AD8" s="149"/>
+      <c r="AE8" s="149"/>
+      <c r="AF8" s="149"/>
+      <c r="AG8" s="149"/>
+      <c r="AH8" s="149"/>
+      <c r="AI8" s="149"/>
+      <c r="AJ8" s="150"/>
     </row>
     <row r="9" spans="1:36" ht="33" customHeight="1">
       <c r="A9" s="1"/>
@@ -4023,33 +4023,33 @@
     </row>
     <row r="10" spans="1:36" ht="33" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="149" t="s">
+      <c r="B10" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="149"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="149"/>
-      <c r="I10" s="120" t="s">
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="I10" s="129" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="129"/>
+      <c r="M10" s="129"/>
+      <c r="N10" s="129"/>
       <c r="Q10" s="16"/>
       <c r="R10" s="87" t="s">
         <v>15</v>
       </c>
       <c r="U10" s="87"/>
-      <c r="W10" s="120" t="s">
+      <c r="W10" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="X10" s="120"/>
-      <c r="Y10" s="120"/>
-      <c r="Z10" s="120"/>
-      <c r="AA10" s="120"/>
-      <c r="AB10" s="120"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="129"/>
+      <c r="Z10" s="129"/>
+      <c r="AA10" s="129"/>
+      <c r="AB10" s="129"/>
       <c r="AC10" s="87"/>
       <c r="AD10" s="87"/>
       <c r="AE10" s="87"/>
@@ -4061,34 +4061,34 @@
     </row>
     <row r="11" spans="1:36" ht="33" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="149" t="s">
+      <c r="B11" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="149"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="149"/>
-      <c r="I11" s="120" t="s">
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="I11" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="120"/>
-      <c r="N11" s="120"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="129"/>
+      <c r="M11" s="129"/>
+      <c r="N11" s="129"/>
       <c r="R11" s="87" t="s">
         <v>17</v>
       </c>
       <c r="S11" s="87"/>
       <c r="U11" s="88"/>
       <c r="V11" s="88"/>
-      <c r="W11" s="120">
+      <c r="W11" s="129">
         <v>0</v>
       </c>
-      <c r="X11" s="120"/>
-      <c r="Y11" s="120"/>
-      <c r="Z11" s="120"/>
-      <c r="AA11" s="120"/>
-      <c r="AB11" s="120"/>
+      <c r="X11" s="129"/>
+      <c r="Y11" s="129"/>
+      <c r="Z11" s="129"/>
+      <c r="AA11" s="129"/>
+      <c r="AB11" s="129"/>
       <c r="AC11" s="87"/>
       <c r="AD11" s="87"/>
       <c r="AE11" s="87"/>
@@ -4100,18 +4100,18 @@
     </row>
     <row r="12" spans="1:36" ht="33" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="149" t="s">
+      <c r="B12" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="149"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="149"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="124"/>
-      <c r="M12" s="124"/>
-      <c r="N12" s="124"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="128"/>
+      <c r="M12" s="128"/>
+      <c r="N12" s="128"/>
       <c r="O12" s="87"/>
       <c r="P12" s="87"/>
       <c r="Q12" s="87" t="s">
@@ -4120,12 +4120,12 @@
       <c r="S12" s="87"/>
       <c r="U12" s="88"/>
       <c r="V12" s="88"/>
-      <c r="W12" s="126"/>
-      <c r="X12" s="126"/>
-      <c r="Y12" s="126"/>
-      <c r="Z12" s="126"/>
-      <c r="AA12" s="126"/>
-      <c r="AB12" s="126"/>
+      <c r="W12" s="160"/>
+      <c r="X12" s="160"/>
+      <c r="Y12" s="160"/>
+      <c r="Z12" s="160"/>
+      <c r="AA12" s="160"/>
+      <c r="AB12" s="160"/>
       <c r="AC12" s="87"/>
       <c r="AD12" s="87"/>
       <c r="AE12" s="87"/>
@@ -4144,14 +4144,14 @@
       <c r="D13" s="89"/>
       <c r="E13" s="89"/>
       <c r="H13" s="88"/>
-      <c r="I13" s="127" t="s">
+      <c r="I13" s="161" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="127"/>
-      <c r="K13" s="127"/>
-      <c r="L13" s="127"/>
-      <c r="M13" s="127"/>
-      <c r="N13" s="127"/>
+      <c r="J13" s="161"/>
+      <c r="K13" s="161"/>
+      <c r="L13" s="161"/>
+      <c r="M13" s="161"/>
+      <c r="N13" s="161"/>
       <c r="O13" s="88"/>
       <c r="P13" s="87"/>
       <c r="Q13" s="89"/>
@@ -4162,12 +4162,12 @@
       <c r="T13" s="87"/>
       <c r="U13" s="87"/>
       <c r="V13" s="87"/>
-      <c r="W13" s="126"/>
-      <c r="X13" s="126"/>
-      <c r="Y13" s="126"/>
-      <c r="Z13" s="126"/>
-      <c r="AA13" s="126"/>
-      <c r="AB13" s="126"/>
+      <c r="W13" s="160"/>
+      <c r="X13" s="160"/>
+      <c r="Y13" s="160"/>
+      <c r="Z13" s="160"/>
+      <c r="AA13" s="160"/>
+      <c r="AB13" s="160"/>
       <c r="AC13" s="87"/>
       <c r="AD13" s="87"/>
       <c r="AE13" s="87"/>
@@ -4390,27 +4390,27 @@
       <c r="F19" s="80"/>
       <c r="G19" s="80"/>
       <c r="H19" s="80"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="120"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="120"/>
-      <c r="N19" s="120"/>
+      <c r="I19" s="129"/>
+      <c r="J19" s="129"/>
+      <c r="K19" s="129"/>
+      <c r="L19" s="129"/>
+      <c r="M19" s="129"/>
+      <c r="N19" s="129"/>
       <c r="O19" s="28"/>
       <c r="P19" s="28"/>
       <c r="Q19" s="90"/>
-      <c r="R19" s="169" t="s">
+      <c r="R19" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="S19" s="169"/>
-      <c r="T19" s="169"/>
+      <c r="S19" s="127"/>
+      <c r="T19" s="127"/>
       <c r="U19" s="87"/>
-      <c r="W19" s="120"/>
-      <c r="X19" s="120"/>
-      <c r="Y19" s="120"/>
-      <c r="Z19" s="120"/>
-      <c r="AA19" s="120"/>
-      <c r="AB19" s="120"/>
+      <c r="W19" s="129"/>
+      <c r="X19" s="129"/>
+      <c r="Y19" s="129"/>
+      <c r="Z19" s="129"/>
+      <c r="AA19" s="129"/>
+      <c r="AB19" s="129"/>
       <c r="AC19" s="80"/>
       <c r="AD19" s="80"/>
       <c r="AE19" s="80"/>
@@ -4431,27 +4431,27 @@
       <c r="F20" s="80"/>
       <c r="G20" s="80"/>
       <c r="H20" s="80"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="124"/>
-      <c r="M20" s="124"/>
-      <c r="N20" s="124"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="128"/>
+      <c r="L20" s="128"/>
+      <c r="M20" s="128"/>
+      <c r="N20" s="128"/>
       <c r="O20" s="28"/>
       <c r="P20" s="28"/>
       <c r="Q20" s="90"/>
-      <c r="R20" s="169" t="s">
+      <c r="R20" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="S20" s="169"/>
-      <c r="T20" s="169"/>
+      <c r="S20" s="127"/>
+      <c r="T20" s="127"/>
       <c r="U20" s="87"/>
-      <c r="W20" s="120"/>
-      <c r="X20" s="120"/>
-      <c r="Y20" s="120"/>
-      <c r="Z20" s="120"/>
-      <c r="AA20" s="120"/>
-      <c r="AB20" s="120"/>
+      <c r="W20" s="129"/>
+      <c r="X20" s="129"/>
+      <c r="Y20" s="129"/>
+      <c r="Z20" s="129"/>
+      <c r="AA20" s="129"/>
+      <c r="AB20" s="129"/>
       <c r="AC20" s="80"/>
       <c r="AD20" s="80"/>
       <c r="AE20" s="80"/>
@@ -4472,27 +4472,27 @@
       <c r="F21" s="80"/>
       <c r="G21" s="80"/>
       <c r="H21" s="80"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="124"/>
-      <c r="M21" s="124"/>
-      <c r="N21" s="124"/>
+      <c r="I21" s="128"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="128"/>
+      <c r="L21" s="128"/>
+      <c r="M21" s="128"/>
+      <c r="N21" s="128"/>
       <c r="O21" s="28"/>
       <c r="P21" s="28"/>
       <c r="Q21" s="90"/>
-      <c r="R21" s="169" t="s">
+      <c r="R21" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="S21" s="169"/>
-      <c r="T21" s="169"/>
+      <c r="S21" s="127"/>
+      <c r="T21" s="127"/>
       <c r="U21" s="87"/>
-      <c r="W21" s="120"/>
-      <c r="X21" s="120"/>
-      <c r="Y21" s="120"/>
-      <c r="Z21" s="120"/>
-      <c r="AA21" s="120"/>
-      <c r="AB21" s="120"/>
+      <c r="W21" s="129"/>
+      <c r="X21" s="129"/>
+      <c r="Y21" s="129"/>
+      <c r="Z21" s="129"/>
+      <c r="AA21" s="129"/>
+      <c r="AB21" s="129"/>
       <c r="AC21" s="80"/>
       <c r="AD21" s="80"/>
       <c r="AE21" s="80"/>
@@ -4513,27 +4513,27 @@
       <c r="F22" s="80"/>
       <c r="G22" s="80"/>
       <c r="H22" s="80"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="124"/>
-      <c r="L22" s="124"/>
-      <c r="M22" s="124"/>
-      <c r="N22" s="124"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="128"/>
+      <c r="L22" s="128"/>
+      <c r="M22" s="128"/>
+      <c r="N22" s="128"/>
       <c r="O22" s="28"/>
       <c r="P22" s="28"/>
       <c r="Q22" s="90"/>
-      <c r="R22" s="169" t="s">
+      <c r="R22" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="S22" s="169"/>
-      <c r="T22" s="169"/>
+      <c r="S22" s="127"/>
+      <c r="T22" s="127"/>
       <c r="U22" s="87"/>
-      <c r="W22" s="120"/>
-      <c r="X22" s="120"/>
-      <c r="Y22" s="120"/>
-      <c r="Z22" s="120"/>
-      <c r="AA22" s="120"/>
-      <c r="AB22" s="120"/>
+      <c r="W22" s="129"/>
+      <c r="X22" s="129"/>
+      <c r="Y22" s="129"/>
+      <c r="Z22" s="129"/>
+      <c r="AA22" s="129"/>
+      <c r="AB22" s="129"/>
       <c r="AC22" s="80"/>
       <c r="AD22" s="80"/>
       <c r="AE22" s="80"/>
@@ -4623,10 +4623,10 @@
         <v>11</v>
       </c>
       <c r="C25" s="84"/>
-      <c r="D25" s="171"/>
-      <c r="E25" s="171"/>
-      <c r="F25" s="171"/>
-      <c r="G25" s="171"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="111"/>
       <c r="H25" s="93"/>
       <c r="I25" s="80"/>
       <c r="J25" s="80"/>
@@ -4653,10 +4653,10 @@
         <v>5</v>
       </c>
       <c r="AE25" s="42"/>
-      <c r="AF25" s="172"/>
-      <c r="AG25" s="172"/>
-      <c r="AH25" s="172"/>
-      <c r="AI25" s="172"/>
+      <c r="AF25" s="112"/>
+      <c r="AG25" s="112"/>
+      <c r="AH25" s="112"/>
+      <c r="AI25" s="112"/>
       <c r="AJ25" s="44"/>
     </row>
     <row r="26" spans="1:36" ht="21.75" customHeight="1">
@@ -4699,18 +4699,18 @@
     </row>
     <row r="27" spans="1:36" ht="21.75" customHeight="1">
       <c r="A27" s="43"/>
-      <c r="B27" s="111" t="s">
+      <c r="B27" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="112"/>
-      <c r="D27" s="111" t="s">
+      <c r="C27" s="114"/>
+      <c r="D27" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="112"/>
-      <c r="F27" s="111" t="s">
+      <c r="E27" s="114"/>
+      <c r="F27" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="G27" s="112"/>
+      <c r="G27" s="114"/>
       <c r="H27" s="80"/>
       <c r="I27" s="80"/>
       <c r="J27" s="80"/>
@@ -4733,28 +4733,28 @@
       <c r="AA27" s="80"/>
       <c r="AB27" s="80"/>
       <c r="AC27" s="80"/>
-      <c r="AD27" s="111" t="s">
+      <c r="AD27" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="AE27" s="112"/>
-      <c r="AF27" s="111" t="s">
+      <c r="AE27" s="114"/>
+      <c r="AF27" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="AG27" s="112"/>
-      <c r="AH27" s="111" t="s">
+      <c r="AG27" s="114"/>
+      <c r="AH27" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="AI27" s="112"/>
+      <c r="AI27" s="114"/>
       <c r="AJ27" s="44"/>
     </row>
     <row r="28" spans="1:36" ht="27" customHeight="1">
       <c r="A28" s="43"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="112"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="114"/>
       <c r="H28" s="80"/>
       <c r="I28" s="80"/>
       <c r="J28" s="80"/>
@@ -4777,22 +4777,22 @@
       <c r="AA28" s="96"/>
       <c r="AB28" s="96"/>
       <c r="AC28" s="96"/>
-      <c r="AD28" s="111"/>
-      <c r="AE28" s="112"/>
-      <c r="AF28" s="111"/>
-      <c r="AG28" s="112"/>
-      <c r="AH28" s="111"/>
-      <c r="AI28" s="112"/>
+      <c r="AD28" s="113"/>
+      <c r="AE28" s="114"/>
+      <c r="AF28" s="113"/>
+      <c r="AG28" s="114"/>
+      <c r="AH28" s="113"/>
+      <c r="AI28" s="114"/>
       <c r="AJ28" s="44"/>
     </row>
     <row r="29" spans="1:36" ht="27" customHeight="1">
       <c r="A29" s="43"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="112"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="114"/>
       <c r="H29" s="97"/>
       <c r="I29" s="97"/>
       <c r="J29" s="97"/>
@@ -4815,22 +4815,22 @@
       <c r="AA29" s="96"/>
       <c r="AB29" s="96"/>
       <c r="AC29" s="96"/>
-      <c r="AD29" s="111"/>
-      <c r="AE29" s="112"/>
-      <c r="AF29" s="111"/>
-      <c r="AG29" s="112"/>
-      <c r="AH29" s="111"/>
-      <c r="AI29" s="112"/>
+      <c r="AD29" s="113"/>
+      <c r="AE29" s="114"/>
+      <c r="AF29" s="113"/>
+      <c r="AG29" s="114"/>
+      <c r="AH29" s="113"/>
+      <c r="AI29" s="114"/>
       <c r="AJ29" s="44"/>
     </row>
     <row r="30" spans="1:36" ht="27" customHeight="1">
       <c r="A30" s="43"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="112"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="114"/>
       <c r="H30" s="97"/>
       <c r="I30" s="97"/>
       <c r="J30" s="97"/>
@@ -4853,22 +4853,22 @@
       <c r="AA30" s="96"/>
       <c r="AB30" s="96"/>
       <c r="AC30" s="96"/>
-      <c r="AD30" s="111"/>
-      <c r="AE30" s="112"/>
-      <c r="AF30" s="111"/>
-      <c r="AG30" s="112"/>
-      <c r="AH30" s="111"/>
-      <c r="AI30" s="112"/>
+      <c r="AD30" s="113"/>
+      <c r="AE30" s="114"/>
+      <c r="AF30" s="113"/>
+      <c r="AG30" s="114"/>
+      <c r="AH30" s="113"/>
+      <c r="AI30" s="114"/>
       <c r="AJ30" s="44"/>
     </row>
     <row r="31" spans="1:36" ht="30" customHeight="1">
       <c r="A31" s="43"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="112"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="114"/>
       <c r="H31" s="97"/>
       <c r="I31" s="97"/>
       <c r="J31" s="97"/>
@@ -4891,22 +4891,22 @@
       <c r="AA31" s="96"/>
       <c r="AB31" s="96"/>
       <c r="AC31" s="96"/>
-      <c r="AD31" s="111"/>
-      <c r="AE31" s="112"/>
-      <c r="AF31" s="111"/>
-      <c r="AG31" s="112"/>
-      <c r="AH31" s="111"/>
-      <c r="AI31" s="112"/>
+      <c r="AD31" s="113"/>
+      <c r="AE31" s="114"/>
+      <c r="AF31" s="113"/>
+      <c r="AG31" s="114"/>
+      <c r="AH31" s="113"/>
+      <c r="AI31" s="114"/>
       <c r="AJ31" s="44"/>
     </row>
     <row r="32" spans="1:36" ht="28.5" customHeight="1">
       <c r="A32" s="43"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="112"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="114"/>
       <c r="H32" s="97"/>
       <c r="I32" s="97"/>
       <c r="J32" s="97"/>
@@ -4929,22 +4929,22 @@
       <c r="AA32" s="96"/>
       <c r="AB32" s="96"/>
       <c r="AC32" s="96"/>
-      <c r="AD32" s="111"/>
-      <c r="AE32" s="112"/>
-      <c r="AF32" s="111"/>
-      <c r="AG32" s="112"/>
-      <c r="AH32" s="111"/>
-      <c r="AI32" s="112"/>
+      <c r="AD32" s="113"/>
+      <c r="AE32" s="114"/>
+      <c r="AF32" s="113"/>
+      <c r="AG32" s="114"/>
+      <c r="AH32" s="113"/>
+      <c r="AI32" s="114"/>
       <c r="AJ32" s="44"/>
     </row>
     <row r="33" spans="1:36" ht="28.5" customHeight="1">
       <c r="A33" s="43"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="112"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="114"/>
       <c r="H33" s="97"/>
       <c r="I33" s="97"/>
       <c r="J33" s="97"/>
@@ -4967,22 +4967,22 @@
       <c r="AA33" s="96"/>
       <c r="AB33" s="96"/>
       <c r="AC33" s="96"/>
-      <c r="AD33" s="111"/>
-      <c r="AE33" s="112"/>
-      <c r="AF33" s="111"/>
-      <c r="AG33" s="112"/>
-      <c r="AH33" s="111"/>
-      <c r="AI33" s="112"/>
+      <c r="AD33" s="113"/>
+      <c r="AE33" s="114"/>
+      <c r="AF33" s="113"/>
+      <c r="AG33" s="114"/>
+      <c r="AH33" s="113"/>
+      <c r="AI33" s="114"/>
       <c r="AJ33" s="44"/>
     </row>
     <row r="34" spans="1:36" ht="30.75" customHeight="1">
       <c r="A34" s="14"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="112"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="114"/>
       <c r="H34" s="97"/>
       <c r="I34" s="97"/>
       <c r="J34" s="97"/>
@@ -5005,22 +5005,22 @@
       <c r="AA34" s="96"/>
       <c r="AB34" s="96"/>
       <c r="AC34" s="96"/>
-      <c r="AD34" s="111"/>
-      <c r="AE34" s="112"/>
-      <c r="AF34" s="111"/>
-      <c r="AG34" s="112"/>
-      <c r="AH34" s="111"/>
-      <c r="AI34" s="112"/>
+      <c r="AD34" s="113"/>
+      <c r="AE34" s="114"/>
+      <c r="AF34" s="113"/>
+      <c r="AG34" s="114"/>
+      <c r="AH34" s="113"/>
+      <c r="AI34" s="114"/>
       <c r="AJ34" s="17"/>
     </row>
     <row r="35" spans="1:36" ht="30.75" customHeight="1" thickBot="1">
       <c r="A35" s="43"/>
-      <c r="B35" s="113"/>
-      <c r="C35" s="113"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="112"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="114"/>
       <c r="H35" s="97"/>
       <c r="I35" s="97"/>
       <c r="J35" s="97"/>
@@ -5043,38 +5043,38 @@
       <c r="AA35" s="96"/>
       <c r="AB35" s="96"/>
       <c r="AC35" s="96"/>
-      <c r="AD35" s="111"/>
-      <c r="AE35" s="112"/>
-      <c r="AF35" s="111"/>
-      <c r="AG35" s="112"/>
-      <c r="AH35" s="111"/>
-      <c r="AI35" s="112"/>
+      <c r="AD35" s="113"/>
+      <c r="AE35" s="114"/>
+      <c r="AF35" s="113"/>
+      <c r="AG35" s="114"/>
+      <c r="AH35" s="113"/>
+      <c r="AI35" s="114"/>
       <c r="AJ35" s="44"/>
     </row>
     <row r="36" spans="1:36" ht="33" customHeight="1" thickBot="1">
       <c r="A36" s="43"/>
-      <c r="B36" s="113"/>
-      <c r="C36" s="113"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="111"/>
-      <c r="G36" s="112"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="114"/>
       <c r="H36" s="97"/>
       <c r="I36" s="97"/>
       <c r="J36" s="97"/>
       <c r="K36" s="97"/>
       <c r="L36" s="97"/>
-      <c r="M36" s="170" t="s">
+      <c r="M36" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="N36" s="170"/>
-      <c r="O36" s="170"/>
+      <c r="N36" s="131"/>
+      <c r="O36" s="131"/>
       <c r="P36" s="98"/>
-      <c r="Q36" s="128"/>
-      <c r="R36" s="129"/>
-      <c r="S36" s="129"/>
-      <c r="T36" s="129"/>
-      <c r="U36" s="130"/>
+      <c r="Q36" s="162"/>
+      <c r="R36" s="163"/>
+      <c r="S36" s="163"/>
+      <c r="T36" s="163"/>
+      <c r="U36" s="164"/>
       <c r="V36" s="96"/>
       <c r="W36" s="96"/>
       <c r="X36" s="96"/>
@@ -5083,22 +5083,22 @@
       <c r="AA36" s="96"/>
       <c r="AB36" s="96"/>
       <c r="AC36" s="96"/>
-      <c r="AD36" s="111"/>
-      <c r="AE36" s="112"/>
-      <c r="AF36" s="111"/>
-      <c r="AG36" s="112"/>
-      <c r="AH36" s="111"/>
-      <c r="AI36" s="112"/>
+      <c r="AD36" s="113"/>
+      <c r="AE36" s="114"/>
+      <c r="AF36" s="113"/>
+      <c r="AG36" s="114"/>
+      <c r="AH36" s="113"/>
+      <c r="AI36" s="114"/>
       <c r="AJ36" s="45"/>
     </row>
     <row r="37" spans="1:36" ht="30.75" customHeight="1">
       <c r="A37" s="46"/>
-      <c r="B37" s="113"/>
-      <c r="C37" s="113"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="111"/>
-      <c r="G37" s="112"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="113"/>
+      <c r="G37" s="114"/>
       <c r="H37" s="97"/>
       <c r="I37" s="97"/>
       <c r="J37" s="97"/>
@@ -5121,22 +5121,22 @@
       <c r="AA37" s="96"/>
       <c r="AB37" s="96"/>
       <c r="AC37" s="96"/>
-      <c r="AD37" s="111"/>
-      <c r="AE37" s="112"/>
-      <c r="AF37" s="111"/>
-      <c r="AG37" s="112"/>
-      <c r="AH37" s="111"/>
-      <c r="AI37" s="112"/>
+      <c r="AD37" s="113"/>
+      <c r="AE37" s="114"/>
+      <c r="AF37" s="113"/>
+      <c r="AG37" s="114"/>
+      <c r="AH37" s="113"/>
+      <c r="AI37" s="114"/>
       <c r="AJ37" s="45"/>
     </row>
     <row r="38" spans="1:36" ht="30.75" customHeight="1">
       <c r="A38" s="46"/>
-      <c r="B38" s="113"/>
-      <c r="C38" s="113"/>
-      <c r="D38" s="113"/>
-      <c r="E38" s="113"/>
-      <c r="F38" s="113"/>
-      <c r="G38" s="113"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="115"/>
       <c r="H38" s="97"/>
       <c r="I38" s="97"/>
       <c r="J38" s="97"/>
@@ -5159,22 +5159,22 @@
       <c r="AA38" s="96"/>
       <c r="AB38" s="96"/>
       <c r="AC38" s="96"/>
-      <c r="AD38" s="113"/>
-      <c r="AE38" s="113"/>
-      <c r="AF38" s="113"/>
-      <c r="AG38" s="113"/>
-      <c r="AH38" s="113"/>
-      <c r="AI38" s="113"/>
+      <c r="AD38" s="115"/>
+      <c r="AE38" s="115"/>
+      <c r="AF38" s="115"/>
+      <c r="AG38" s="115"/>
+      <c r="AH38" s="115"/>
+      <c r="AI38" s="115"/>
       <c r="AJ38" s="45"/>
     </row>
     <row r="39" spans="1:36" ht="30.75" customHeight="1">
       <c r="A39" s="46"/>
-      <c r="B39" s="113"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="113"/>
-      <c r="G39" s="113"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
       <c r="H39" s="97"/>
       <c r="I39" s="97"/>
       <c r="J39" s="97"/>
@@ -5197,22 +5197,22 @@
       <c r="AA39" s="96"/>
       <c r="AB39" s="96"/>
       <c r="AC39" s="96"/>
-      <c r="AD39" s="113"/>
-      <c r="AE39" s="113"/>
-      <c r="AF39" s="113"/>
-      <c r="AG39" s="113"/>
-      <c r="AH39" s="113"/>
-      <c r="AI39" s="113"/>
+      <c r="AD39" s="115"/>
+      <c r="AE39" s="115"/>
+      <c r="AF39" s="115"/>
+      <c r="AG39" s="115"/>
+      <c r="AH39" s="115"/>
+      <c r="AI39" s="115"/>
       <c r="AJ39" s="45"/>
     </row>
     <row r="40" spans="1:36" ht="30.75" customHeight="1">
       <c r="A40" s="46"/>
-      <c r="B40" s="113"/>
-      <c r="C40" s="113"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="113"/>
-      <c r="G40" s="113"/>
+      <c r="B40" s="115"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="115"/>
       <c r="H40" s="97"/>
       <c r="I40" s="97"/>
       <c r="J40" s="97"/>
@@ -5235,22 +5235,22 @@
       <c r="AA40" s="96"/>
       <c r="AB40" s="96"/>
       <c r="AC40" s="96"/>
-      <c r="AD40" s="113"/>
-      <c r="AE40" s="113"/>
-      <c r="AF40" s="113"/>
-      <c r="AG40" s="113"/>
-      <c r="AH40" s="113"/>
-      <c r="AI40" s="113"/>
+      <c r="AD40" s="115"/>
+      <c r="AE40" s="115"/>
+      <c r="AF40" s="115"/>
+      <c r="AG40" s="115"/>
+      <c r="AH40" s="115"/>
+      <c r="AI40" s="115"/>
       <c r="AJ40" s="45"/>
     </row>
     <row r="41" spans="1:36" ht="30.75" customHeight="1">
       <c r="A41" s="46"/>
-      <c r="B41" s="113"/>
-      <c r="C41" s="113"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="113"/>
-      <c r="F41" s="113"/>
-      <c r="G41" s="113"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="115"/>
       <c r="H41" s="97"/>
       <c r="I41" s="97"/>
       <c r="J41" s="97"/>
@@ -5273,22 +5273,22 @@
       <c r="AA41" s="96"/>
       <c r="AB41" s="96"/>
       <c r="AC41" s="96"/>
-      <c r="AD41" s="113"/>
-      <c r="AE41" s="113"/>
-      <c r="AF41" s="113"/>
-      <c r="AG41" s="113"/>
-      <c r="AH41" s="113"/>
-      <c r="AI41" s="113"/>
+      <c r="AD41" s="115"/>
+      <c r="AE41" s="115"/>
+      <c r="AF41" s="115"/>
+      <c r="AG41" s="115"/>
+      <c r="AH41" s="115"/>
+      <c r="AI41" s="115"/>
       <c r="AJ41" s="45"/>
     </row>
     <row r="42" spans="1:36" ht="30.75" customHeight="1">
       <c r="A42" s="46"/>
-      <c r="B42" s="113"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="113"/>
-      <c r="G42" s="113"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="115"/>
       <c r="H42" s="97"/>
       <c r="I42" s="97"/>
       <c r="J42" s="97"/>
@@ -5311,22 +5311,22 @@
       <c r="AA42" s="96"/>
       <c r="AB42" s="96"/>
       <c r="AC42" s="96"/>
-      <c r="AD42" s="113"/>
-      <c r="AE42" s="113"/>
-      <c r="AF42" s="113"/>
-      <c r="AG42" s="113"/>
-      <c r="AH42" s="113"/>
-      <c r="AI42" s="113"/>
+      <c r="AD42" s="115"/>
+      <c r="AE42" s="115"/>
+      <c r="AF42" s="115"/>
+      <c r="AG42" s="115"/>
+      <c r="AH42" s="115"/>
+      <c r="AI42" s="115"/>
       <c r="AJ42" s="45"/>
     </row>
     <row r="43" spans="1:36" ht="30.75" customHeight="1">
       <c r="A43" s="46"/>
-      <c r="B43" s="113"/>
-      <c r="C43" s="113"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="113"/>
-      <c r="F43" s="113"/>
-      <c r="G43" s="113"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="115"/>
       <c r="H43" s="97"/>
       <c r="I43" s="97"/>
       <c r="J43" s="97"/>
@@ -5349,22 +5349,22 @@
       <c r="AA43" s="96"/>
       <c r="AB43" s="96"/>
       <c r="AC43" s="96"/>
-      <c r="AD43" s="113"/>
-      <c r="AE43" s="113"/>
-      <c r="AF43" s="113"/>
-      <c r="AG43" s="113"/>
-      <c r="AH43" s="113"/>
-      <c r="AI43" s="113"/>
+      <c r="AD43" s="115"/>
+      <c r="AE43" s="115"/>
+      <c r="AF43" s="115"/>
+      <c r="AG43" s="115"/>
+      <c r="AH43" s="115"/>
+      <c r="AI43" s="115"/>
       <c r="AJ43" s="45"/>
     </row>
     <row r="44" spans="1:36" ht="30.75" customHeight="1">
       <c r="A44" s="46"/>
-      <c r="B44" s="113"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
-      <c r="G44" s="113"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="115"/>
+      <c r="G44" s="115"/>
       <c r="H44" s="97"/>
       <c r="I44" s="97"/>
       <c r="J44" s="97"/>
@@ -5387,22 +5387,22 @@
       <c r="AA44" s="96"/>
       <c r="AB44" s="96"/>
       <c r="AC44" s="96"/>
-      <c r="AD44" s="113"/>
-      <c r="AE44" s="113"/>
-      <c r="AF44" s="113"/>
-      <c r="AG44" s="113"/>
-      <c r="AH44" s="113"/>
-      <c r="AI44" s="113"/>
+      <c r="AD44" s="115"/>
+      <c r="AE44" s="115"/>
+      <c r="AF44" s="115"/>
+      <c r="AG44" s="115"/>
+      <c r="AH44" s="115"/>
+      <c r="AI44" s="115"/>
       <c r="AJ44" s="45"/>
     </row>
     <row r="45" spans="1:36" ht="30.75" customHeight="1">
       <c r="A45" s="46"/>
-      <c r="B45" s="113"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="113"/>
-      <c r="F45" s="113"/>
-      <c r="G45" s="113"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="115"/>
       <c r="H45" s="97"/>
       <c r="I45" s="97"/>
       <c r="J45" s="97"/>
@@ -5425,22 +5425,22 @@
       <c r="AA45" s="96"/>
       <c r="AB45" s="96"/>
       <c r="AC45" s="96"/>
-      <c r="AD45" s="113"/>
-      <c r="AE45" s="113"/>
-      <c r="AF45" s="113"/>
-      <c r="AG45" s="113"/>
-      <c r="AH45" s="113"/>
-      <c r="AI45" s="113"/>
+      <c r="AD45" s="115"/>
+      <c r="AE45" s="115"/>
+      <c r="AF45" s="115"/>
+      <c r="AG45" s="115"/>
+      <c r="AH45" s="115"/>
+      <c r="AI45" s="115"/>
       <c r="AJ45" s="45"/>
     </row>
     <row r="46" spans="1:36" ht="30.75" customHeight="1">
       <c r="A46" s="43"/>
-      <c r="B46" s="113"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="113"/>
-      <c r="F46" s="113"/>
-      <c r="G46" s="113"/>
+      <c r="B46" s="115"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="115"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="115"/>
       <c r="H46" s="99"/>
       <c r="I46" s="99"/>
       <c r="J46" s="99"/>
@@ -5449,12 +5449,12 @@
       <c r="N46" s="100"/>
       <c r="Q46" s="28"/>
       <c r="R46" s="101"/>
-      <c r="AD46" s="113"/>
-      <c r="AE46" s="113"/>
-      <c r="AF46" s="113"/>
-      <c r="AG46" s="113"/>
-      <c r="AH46" s="113"/>
-      <c r="AI46" s="113"/>
+      <c r="AD46" s="115"/>
+      <c r="AE46" s="115"/>
+      <c r="AF46" s="115"/>
+      <c r="AG46" s="115"/>
+      <c r="AH46" s="115"/>
+      <c r="AI46" s="115"/>
       <c r="AJ46" s="45"/>
     </row>
     <row r="47" spans="1:36" ht="30.75" customHeight="1" thickBot="1">
@@ -5513,21 +5513,21 @@
       <c r="G49" s="80"/>
       <c r="H49" s="80"/>
       <c r="I49" s="80"/>
-      <c r="J49" s="122" t="s">
+      <c r="J49" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="K49" s="122"/>
-      <c r="L49" s="122"/>
-      <c r="M49" s="122" t="s">
+      <c r="K49" s="126"/>
+      <c r="L49" s="126"/>
+      <c r="M49" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="N49" s="122"/>
-      <c r="O49" s="122"/>
-      <c r="P49" s="122" t="s">
+      <c r="N49" s="126"/>
+      <c r="O49" s="126"/>
+      <c r="P49" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="Q49" s="122"/>
-      <c r="R49" s="122"/>
+      <c r="Q49" s="126"/>
+      <c r="R49" s="126"/>
       <c r="S49" s="90"/>
       <c r="T49" s="36"/>
       <c r="AF49" s="80"/>
@@ -5538,42 +5538,42 @@
     </row>
     <row r="50" spans="1:54" ht="30.75" customHeight="1">
       <c r="A50" s="14"/>
-      <c r="B50" s="121" t="s">
+      <c r="B50" s="166" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="121"/>
-      <c r="D50" s="121"/>
-      <c r="E50" s="121"/>
-      <c r="F50" s="121"/>
-      <c r="G50" s="121"/>
-      <c r="H50" s="121"/>
-      <c r="I50" s="121"/>
-      <c r="J50" s="122" t="s">
+      <c r="C50" s="166"/>
+      <c r="D50" s="166"/>
+      <c r="E50" s="166"/>
+      <c r="F50" s="166"/>
+      <c r="G50" s="166"/>
+      <c r="H50" s="166"/>
+      <c r="I50" s="166"/>
+      <c r="J50" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="K50" s="122"/>
-      <c r="L50" s="122"/>
-      <c r="M50" s="122"/>
-      <c r="N50" s="122"/>
-      <c r="O50" s="122"/>
-      <c r="P50" s="123"/>
-      <c r="Q50" s="123"/>
-      <c r="R50" s="123"/>
+      <c r="K50" s="126"/>
+      <c r="L50" s="126"/>
+      <c r="M50" s="126"/>
+      <c r="N50" s="126"/>
+      <c r="O50" s="126"/>
+      <c r="P50" s="132"/>
+      <c r="Q50" s="132"/>
+      <c r="R50" s="132"/>
       <c r="S50" s="89"/>
       <c r="T50" s="38"/>
-      <c r="U50" s="125" t="s">
+      <c r="U50" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="V50" s="125"/>
-      <c r="W50" s="125"/>
-      <c r="X50" s="125"/>
-      <c r="Y50" s="125"/>
-      <c r="Z50" s="120"/>
-      <c r="AA50" s="120"/>
-      <c r="AB50" s="120"/>
-      <c r="AC50" s="120"/>
-      <c r="AD50" s="120"/>
-      <c r="AE50" s="120"/>
+      <c r="V50" s="165"/>
+      <c r="W50" s="165"/>
+      <c r="X50" s="165"/>
+      <c r="Y50" s="165"/>
+      <c r="Z50" s="129"/>
+      <c r="AA50" s="129"/>
+      <c r="AB50" s="129"/>
+      <c r="AC50" s="129"/>
+      <c r="AD50" s="129"/>
+      <c r="AE50" s="129"/>
       <c r="AF50" s="92"/>
       <c r="AG50" s="88"/>
       <c r="AH50" s="88"/>
@@ -5582,27 +5582,27 @@
     </row>
     <row r="51" spans="1:54" ht="30.75" customHeight="1">
       <c r="A51" s="14"/>
-      <c r="B51" s="121" t="s">
+      <c r="B51" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="121"/>
-      <c r="D51" s="121"/>
-      <c r="E51" s="121"/>
-      <c r="F51" s="121"/>
-      <c r="G51" s="121"/>
-      <c r="H51" s="121"/>
-      <c r="I51" s="121"/>
-      <c r="J51" s="122" t="s">
+      <c r="C51" s="166"/>
+      <c r="D51" s="166"/>
+      <c r="E51" s="166"/>
+      <c r="F51" s="166"/>
+      <c r="G51" s="166"/>
+      <c r="H51" s="166"/>
+      <c r="I51" s="166"/>
+      <c r="J51" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="K51" s="122"/>
-      <c r="L51" s="122"/>
-      <c r="M51" s="122"/>
-      <c r="N51" s="122"/>
-      <c r="O51" s="122"/>
-      <c r="P51" s="123"/>
-      <c r="Q51" s="123"/>
-      <c r="R51" s="123"/>
+      <c r="K51" s="126"/>
+      <c r="L51" s="126"/>
+      <c r="M51" s="126"/>
+      <c r="N51" s="126"/>
+      <c r="O51" s="126"/>
+      <c r="P51" s="132"/>
+      <c r="Q51" s="132"/>
+      <c r="R51" s="132"/>
       <c r="S51" s="89"/>
       <c r="T51" s="39"/>
       <c r="U51" s="91" t="s">
@@ -5612,12 +5612,12 @@
       <c r="W51" s="91"/>
       <c r="X51" s="91"/>
       <c r="Y51" s="91"/>
-      <c r="Z51" s="124"/>
-      <c r="AA51" s="124"/>
-      <c r="AB51" s="124"/>
-      <c r="AC51" s="124"/>
-      <c r="AD51" s="124"/>
-      <c r="AE51" s="124"/>
+      <c r="Z51" s="128"/>
+      <c r="AA51" s="128"/>
+      <c r="AB51" s="128"/>
+      <c r="AC51" s="128"/>
+      <c r="AD51" s="128"/>
+      <c r="AE51" s="128"/>
       <c r="AF51" s="92"/>
       <c r="AG51" s="88"/>
       <c r="AH51" s="88"/>
@@ -5626,27 +5626,27 @@
     </row>
     <row r="52" spans="1:54" ht="30.75" customHeight="1">
       <c r="A52" s="14"/>
-      <c r="B52" s="121" t="s">
+      <c r="B52" s="166" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="121"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="121"/>
-      <c r="F52" s="121"/>
-      <c r="G52" s="121"/>
-      <c r="H52" s="121"/>
-      <c r="I52" s="121"/>
-      <c r="J52" s="122" t="s">
+      <c r="C52" s="166"/>
+      <c r="D52" s="166"/>
+      <c r="E52" s="166"/>
+      <c r="F52" s="166"/>
+      <c r="G52" s="166"/>
+      <c r="H52" s="166"/>
+      <c r="I52" s="166"/>
+      <c r="J52" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="K52" s="122"/>
-      <c r="L52" s="122"/>
-      <c r="M52" s="122"/>
-      <c r="N52" s="122"/>
-      <c r="O52" s="122"/>
-      <c r="P52" s="123"/>
-      <c r="Q52" s="123"/>
-      <c r="R52" s="123"/>
+      <c r="K52" s="126"/>
+      <c r="L52" s="126"/>
+      <c r="M52" s="126"/>
+      <c r="N52" s="126"/>
+      <c r="O52" s="126"/>
+      <c r="P52" s="132"/>
+      <c r="Q52" s="132"/>
+      <c r="R52" s="132"/>
       <c r="S52" s="89"/>
       <c r="T52" s="38"/>
       <c r="U52" s="91" t="s">
@@ -5656,12 +5656,12 @@
       <c r="W52" s="91"/>
       <c r="X52" s="91"/>
       <c r="Y52" s="91"/>
-      <c r="Z52" s="124"/>
-      <c r="AA52" s="124"/>
-      <c r="AB52" s="124"/>
-      <c r="AC52" s="124"/>
-      <c r="AD52" s="124"/>
-      <c r="AE52" s="124"/>
+      <c r="Z52" s="128"/>
+      <c r="AA52" s="128"/>
+      <c r="AB52" s="128"/>
+      <c r="AC52" s="128"/>
+      <c r="AD52" s="128"/>
+      <c r="AE52" s="128"/>
       <c r="AF52" s="88"/>
       <c r="AG52" s="87"/>
       <c r="AH52" s="87"/>
@@ -5670,27 +5670,27 @@
     </row>
     <row r="53" spans="1:54" ht="30.75" customHeight="1">
       <c r="A53" s="14"/>
-      <c r="B53" s="121" t="s">
+      <c r="B53" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="121"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="121"/>
-      <c r="F53" s="121"/>
-      <c r="G53" s="121"/>
-      <c r="H53" s="121"/>
-      <c r="I53" s="121"/>
-      <c r="J53" s="122" t="s">
+      <c r="C53" s="166"/>
+      <c r="D53" s="166"/>
+      <c r="E53" s="166"/>
+      <c r="F53" s="166"/>
+      <c r="G53" s="166"/>
+      <c r="H53" s="166"/>
+      <c r="I53" s="166"/>
+      <c r="J53" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="K53" s="122"/>
-      <c r="L53" s="122"/>
-      <c r="M53" s="122"/>
-      <c r="N53" s="122"/>
-      <c r="O53" s="122"/>
-      <c r="P53" s="123"/>
-      <c r="Q53" s="123"/>
-      <c r="R53" s="123"/>
+      <c r="K53" s="126"/>
+      <c r="L53" s="126"/>
+      <c r="M53" s="126"/>
+      <c r="N53" s="126"/>
+      <c r="O53" s="126"/>
+      <c r="P53" s="132"/>
+      <c r="Q53" s="132"/>
+      <c r="R53" s="132"/>
       <c r="S53" s="89"/>
       <c r="T53" s="39"/>
       <c r="U53" s="91" t="s">
@@ -5700,12 +5700,12 @@
       <c r="W53" s="91"/>
       <c r="X53" s="91"/>
       <c r="Y53" s="91"/>
-      <c r="Z53" s="120"/>
-      <c r="AA53" s="120"/>
-      <c r="AB53" s="120"/>
-      <c r="AC53" s="120"/>
-      <c r="AD53" s="120"/>
-      <c r="AE53" s="120"/>
+      <c r="Z53" s="129"/>
+      <c r="AA53" s="129"/>
+      <c r="AB53" s="129"/>
+      <c r="AC53" s="129"/>
+      <c r="AD53" s="129"/>
+      <c r="AE53" s="129"/>
       <c r="AF53" s="92"/>
       <c r="AG53" s="88"/>
       <c r="AH53" s="88"/>
@@ -5714,27 +5714,27 @@
     </row>
     <row r="54" spans="1:54" ht="30.75" customHeight="1">
       <c r="A54" s="14"/>
-      <c r="B54" s="121" t="s">
+      <c r="B54" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="C54" s="121"/>
-      <c r="D54" s="121"/>
-      <c r="E54" s="121"/>
-      <c r="F54" s="121"/>
-      <c r="G54" s="121"/>
-      <c r="H54" s="121"/>
-      <c r="I54" s="121"/>
-      <c r="J54" s="122" t="s">
+      <c r="C54" s="166"/>
+      <c r="D54" s="166"/>
+      <c r="E54" s="166"/>
+      <c r="F54" s="166"/>
+      <c r="G54" s="166"/>
+      <c r="H54" s="166"/>
+      <c r="I54" s="166"/>
+      <c r="J54" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="K54" s="122"/>
-      <c r="L54" s="122"/>
-      <c r="M54" s="122"/>
-      <c r="N54" s="122"/>
-      <c r="O54" s="122"/>
-      <c r="P54" s="123"/>
-      <c r="Q54" s="123"/>
-      <c r="R54" s="123"/>
+      <c r="K54" s="126"/>
+      <c r="L54" s="126"/>
+      <c r="M54" s="126"/>
+      <c r="N54" s="126"/>
+      <c r="O54" s="126"/>
+      <c r="P54" s="132"/>
+      <c r="Q54" s="132"/>
+      <c r="R54" s="132"/>
       <c r="S54" s="89"/>
       <c r="T54" s="40"/>
       <c r="U54" s="91" t="s">
@@ -5744,12 +5744,12 @@
       <c r="W54" s="91"/>
       <c r="X54" s="91"/>
       <c r="Y54" s="91"/>
-      <c r="Z54" s="119"/>
-      <c r="AA54" s="120"/>
-      <c r="AB54" s="120"/>
-      <c r="AC54" s="120"/>
-      <c r="AD54" s="120"/>
-      <c r="AE54" s="120"/>
+      <c r="Z54" s="172"/>
+      <c r="AA54" s="129"/>
+      <c r="AB54" s="129"/>
+      <c r="AC54" s="129"/>
+      <c r="AD54" s="129"/>
+      <c r="AE54" s="129"/>
       <c r="AF54" s="92"/>
       <c r="AG54" s="88"/>
       <c r="AH54" s="88"/>
@@ -5758,27 +5758,27 @@
     </row>
     <row r="55" spans="1:54" ht="27" customHeight="1">
       <c r="A55" s="14"/>
-      <c r="B55" s="121" t="s">
+      <c r="B55" s="166" t="s">
         <v>38</v>
       </c>
-      <c r="C55" s="121"/>
-      <c r="D55" s="121"/>
-      <c r="E55" s="121"/>
-      <c r="F55" s="121"/>
-      <c r="G55" s="121"/>
-      <c r="H55" s="121"/>
-      <c r="I55" s="121"/>
-      <c r="J55" s="122" t="s">
+      <c r="C55" s="166"/>
+      <c r="D55" s="166"/>
+      <c r="E55" s="166"/>
+      <c r="F55" s="166"/>
+      <c r="G55" s="166"/>
+      <c r="H55" s="166"/>
+      <c r="I55" s="166"/>
+      <c r="J55" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="K55" s="122"/>
-      <c r="L55" s="122"/>
-      <c r="M55" s="122"/>
-      <c r="N55" s="122"/>
-      <c r="O55" s="122"/>
-      <c r="P55" s="123"/>
-      <c r="Q55" s="123"/>
-      <c r="R55" s="123"/>
+      <c r="K55" s="126"/>
+      <c r="L55" s="126"/>
+      <c r="M55" s="126"/>
+      <c r="N55" s="126"/>
+      <c r="O55" s="126"/>
+      <c r="P55" s="132"/>
+      <c r="Q55" s="132"/>
+      <c r="R55" s="132"/>
       <c r="S55" s="102"/>
       <c r="T55" s="39"/>
       <c r="U55" s="88"/>
@@ -5853,37 +5853,37 @@
       <c r="C58" s="50"/>
       <c r="D58" s="50"/>
       <c r="E58" s="50"/>
-      <c r="F58" s="117"/>
-      <c r="G58" s="117"/>
-      <c r="H58" s="117"/>
-      <c r="I58" s="117"/>
-      <c r="J58" s="117"/>
-      <c r="K58" s="117"/>
-      <c r="L58" s="117"/>
-      <c r="M58" s="117"/>
-      <c r="N58" s="117"/>
-      <c r="O58" s="117"/>
-      <c r="P58" s="117"/>
-      <c r="Q58" s="117"/>
-      <c r="R58" s="117"/>
-      <c r="S58" s="117"/>
-      <c r="T58" s="117"/>
-      <c r="U58" s="117"/>
-      <c r="V58" s="117"/>
-      <c r="W58" s="117"/>
-      <c r="X58" s="117"/>
-      <c r="Y58" s="117"/>
-      <c r="Z58" s="117"/>
-      <c r="AA58" s="117"/>
-      <c r="AB58" s="117"/>
-      <c r="AC58" s="117"/>
-      <c r="AD58" s="117"/>
-      <c r="AE58" s="117"/>
-      <c r="AF58" s="117"/>
-      <c r="AG58" s="117"/>
-      <c r="AH58" s="117"/>
-      <c r="AI58" s="117"/>
-      <c r="AJ58" s="118"/>
+      <c r="F58" s="170"/>
+      <c r="G58" s="170"/>
+      <c r="H58" s="170"/>
+      <c r="I58" s="170"/>
+      <c r="J58" s="170"/>
+      <c r="K58" s="170"/>
+      <c r="L58" s="170"/>
+      <c r="M58" s="170"/>
+      <c r="N58" s="170"/>
+      <c r="O58" s="170"/>
+      <c r="P58" s="170"/>
+      <c r="Q58" s="170"/>
+      <c r="R58" s="170"/>
+      <c r="S58" s="170"/>
+      <c r="T58" s="170"/>
+      <c r="U58" s="170"/>
+      <c r="V58" s="170"/>
+      <c r="W58" s="170"/>
+      <c r="X58" s="170"/>
+      <c r="Y58" s="170"/>
+      <c r="Z58" s="170"/>
+      <c r="AA58" s="170"/>
+      <c r="AB58" s="170"/>
+      <c r="AC58" s="170"/>
+      <c r="AD58" s="170"/>
+      <c r="AE58" s="170"/>
+      <c r="AF58" s="170"/>
+      <c r="AG58" s="170"/>
+      <c r="AH58" s="170"/>
+      <c r="AI58" s="170"/>
+      <c r="AJ58" s="171"/>
       <c r="AL58" s="48"/>
       <c r="AM58" s="48"/>
       <c r="AN58" s="48"/>
@@ -5996,14 +5996,14 @@
       <c r="AJ60" s="57"/>
     </row>
     <row r="61" spans="1:54" s="28" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A61" s="161" t="s">
+      <c r="A61" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="B61" s="162"/>
-      <c r="C61" s="162"/>
-      <c r="D61" s="162"/>
-      <c r="E61" s="162"/>
-      <c r="F61" s="162"/>
+      <c r="B61" s="119"/>
+      <c r="C61" s="119"/>
+      <c r="D61" s="119"/>
+      <c r="E61" s="119"/>
+      <c r="F61" s="119"/>
       <c r="G61" s="58"/>
       <c r="H61" s="58"/>
       <c r="I61" s="58"/>
@@ -6029,17 +6029,17 @@
       <c r="Y61" s="58"/>
       <c r="Z61" s="58"/>
       <c r="AA61" s="58"/>
-      <c r="AB61" s="114" t="s">
+      <c r="AB61" s="167" t="s">
         <v>54</v>
       </c>
-      <c r="AC61" s="115"/>
-      <c r="AD61" s="115"/>
-      <c r="AE61" s="115"/>
-      <c r="AF61" s="115"/>
-      <c r="AG61" s="115"/>
-      <c r="AH61" s="115"/>
-      <c r="AI61" s="115"/>
-      <c r="AJ61" s="116"/>
+      <c r="AC61" s="168"/>
+      <c r="AD61" s="168"/>
+      <c r="AE61" s="168"/>
+      <c r="AF61" s="168"/>
+      <c r="AG61" s="168"/>
+      <c r="AH61" s="168"/>
+      <c r="AI61" s="168"/>
+      <c r="AJ61" s="169"/>
     </row>
     <row r="62" spans="1:54" s="28" customFormat="1" ht="25.5" customHeight="1">
       <c r="A62" s="61" t="s">
@@ -6047,12 +6047,12 @@
       </c>
       <c r="B62" s="87"/>
       <c r="C62" s="91"/>
-      <c r="D62" s="159"/>
-      <c r="E62" s="159"/>
-      <c r="F62" s="159"/>
-      <c r="G62" s="159"/>
-      <c r="H62" s="159"/>
-      <c r="I62" s="160"/>
+      <c r="D62" s="116"/>
+      <c r="E62" s="116"/>
+      <c r="F62" s="116"/>
+      <c r="G62" s="116"/>
+      <c r="H62" s="116"/>
+      <c r="I62" s="117"/>
       <c r="J62" s="62" t="s">
         <v>1</v>
       </c>
@@ -6093,12 +6093,12 @@
       </c>
       <c r="B63" s="87"/>
       <c r="C63" s="91"/>
-      <c r="D63" s="163"/>
-      <c r="E63" s="163"/>
-      <c r="F63" s="163"/>
-      <c r="G63" s="163"/>
-      <c r="H63" s="163"/>
-      <c r="I63" s="112"/>
+      <c r="D63" s="120"/>
+      <c r="E63" s="120"/>
+      <c r="F63" s="120"/>
+      <c r="G63" s="120"/>
+      <c r="H63" s="120"/>
+      <c r="I63" s="114"/>
       <c r="J63" s="70" t="s">
         <v>2</v>
       </c>
@@ -6139,12 +6139,12 @@
       </c>
       <c r="B64" s="87"/>
       <c r="C64" s="88"/>
-      <c r="D64" s="164"/>
-      <c r="E64" s="163"/>
-      <c r="F64" s="163"/>
-      <c r="G64" s="163"/>
-      <c r="H64" s="163"/>
-      <c r="I64" s="112"/>
+      <c r="D64" s="121"/>
+      <c r="E64" s="120"/>
+      <c r="F64" s="120"/>
+      <c r="G64" s="120"/>
+      <c r="H64" s="120"/>
+      <c r="I64" s="114"/>
       <c r="J64" s="70" t="s">
         <v>3</v>
       </c>
@@ -6185,12 +6185,12 @@
       </c>
       <c r="B65" s="106"/>
       <c r="C65" s="107"/>
-      <c r="D65" s="165"/>
-      <c r="E65" s="165"/>
-      <c r="F65" s="165"/>
-      <c r="G65" s="165"/>
-      <c r="H65" s="165"/>
-      <c r="I65" s="166"/>
+      <c r="D65" s="122"/>
+      <c r="E65" s="122"/>
+      <c r="F65" s="122"/>
+      <c r="G65" s="122"/>
+      <c r="H65" s="122"/>
+      <c r="I65" s="123"/>
       <c r="J65" s="108" t="s">
         <v>4</v>
       </c>
@@ -6265,44 +6265,137 @@
     </row>
   </sheetData>
   <mergeCells count="193">
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="AH27:AI27"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="AD32:AE32"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="AD34:AE34"/>
-    <mergeCell ref="AD35:AE35"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="AF33:AG33"/>
+    <mergeCell ref="AF34:AG34"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AH28:AI28"/>
+    <mergeCell ref="AH29:AI29"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="AH31:AI31"/>
+    <mergeCell ref="AH32:AI32"/>
+    <mergeCell ref="AH33:AI33"/>
+    <mergeCell ref="AH34:AI34"/>
+    <mergeCell ref="AH35:AI35"/>
+    <mergeCell ref="AF29:AG29"/>
+    <mergeCell ref="AF30:AG30"/>
+    <mergeCell ref="AF31:AG31"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="AF42:AG42"/>
+    <mergeCell ref="AF40:AG40"/>
+    <mergeCell ref="AF41:AG41"/>
+    <mergeCell ref="AH41:AI41"/>
+    <mergeCell ref="AH38:AI38"/>
+    <mergeCell ref="AH39:AI39"/>
+    <mergeCell ref="AH40:AI40"/>
+    <mergeCell ref="AD39:AE39"/>
+    <mergeCell ref="AD40:AE40"/>
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="AB61:AJ61"/>
+    <mergeCell ref="F58:AJ58"/>
+    <mergeCell ref="AF46:AG46"/>
+    <mergeCell ref="AH46:AI46"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AD43:AE43"/>
+    <mergeCell ref="AF43:AG43"/>
+    <mergeCell ref="AH43:AI43"/>
+    <mergeCell ref="AD44:AE44"/>
+    <mergeCell ref="AF44:AG44"/>
+    <mergeCell ref="AH44:AI44"/>
+    <mergeCell ref="AD45:AE45"/>
+    <mergeCell ref="AF45:AG45"/>
+    <mergeCell ref="AH45:AI45"/>
+    <mergeCell ref="AD42:AE42"/>
+    <mergeCell ref="Z54:AE54"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:R55"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="Z52:AE52"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="AD46:AE46"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="U50:Y50"/>
+    <mergeCell ref="Z50:AE50"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="AD41:AE41"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B51:I51"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="AH37:AI37"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="W12:AB12"/>
+    <mergeCell ref="W13:AB13"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="W19:AB19"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="W20:AB20"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="W21:AB21"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="W22:AB22"/>
+    <mergeCell ref="I13:N13"/>
+    <mergeCell ref="Q36:U36"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="AF39:AG39"/>
+    <mergeCell ref="A2:G6"/>
+    <mergeCell ref="H4:AD6"/>
+    <mergeCell ref="A8:AJ8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="I10:N10"/>
+    <mergeCell ref="W10:AB10"/>
+    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="W11:AB11"/>
+    <mergeCell ref="H2:AD3"/>
+    <mergeCell ref="AE2:AJ6"/>
     <mergeCell ref="D62:I62"/>
     <mergeCell ref="A61:F61"/>
     <mergeCell ref="D63:I63"/>
@@ -6327,142 +6420,49 @@
     <mergeCell ref="M36:O36"/>
     <mergeCell ref="M53:O53"/>
     <mergeCell ref="P53:R53"/>
-    <mergeCell ref="A2:G6"/>
-    <mergeCell ref="H4:AD6"/>
-    <mergeCell ref="A8:AJ8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="I10:N10"/>
-    <mergeCell ref="W10:AB10"/>
-    <mergeCell ref="I11:N11"/>
-    <mergeCell ref="W11:AB11"/>
-    <mergeCell ref="H2:AD3"/>
-    <mergeCell ref="AE2:AJ6"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="AH37:AI37"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="W12:AB12"/>
-    <mergeCell ref="W13:AB13"/>
-    <mergeCell ref="I19:N19"/>
-    <mergeCell ref="W19:AB19"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="W20:AB20"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="W21:AB21"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="W22:AB22"/>
-    <mergeCell ref="I13:N13"/>
-    <mergeCell ref="Q36:U36"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="AF39:AG39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="U50:Y50"/>
-    <mergeCell ref="Z50:AE50"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="AD41:AE41"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="B51:I51"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="M54:O54"/>
-    <mergeCell ref="P54:R54"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:R55"/>
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="Z52:AE52"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="AD46:AE46"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="AB61:AJ61"/>
-    <mergeCell ref="F58:AJ58"/>
-    <mergeCell ref="AF46:AG46"/>
-    <mergeCell ref="AH46:AI46"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="AD43:AE43"/>
-    <mergeCell ref="AF43:AG43"/>
-    <mergeCell ref="AH43:AI43"/>
-    <mergeCell ref="AD44:AE44"/>
-    <mergeCell ref="AF44:AG44"/>
-    <mergeCell ref="AH44:AI44"/>
-    <mergeCell ref="AD45:AE45"/>
-    <mergeCell ref="AF45:AG45"/>
-    <mergeCell ref="AH45:AI45"/>
-    <mergeCell ref="AD42:AE42"/>
-    <mergeCell ref="Z54:AE54"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="B53:I53"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="AF42:AG42"/>
-    <mergeCell ref="AF40:AG40"/>
-    <mergeCell ref="AF41:AG41"/>
-    <mergeCell ref="AH41:AI41"/>
-    <mergeCell ref="AH38:AI38"/>
-    <mergeCell ref="AH39:AI39"/>
-    <mergeCell ref="AH40:AI40"/>
-    <mergeCell ref="AD39:AE39"/>
-    <mergeCell ref="AD40:AE40"/>
-    <mergeCell ref="AF38:AG38"/>
-    <mergeCell ref="AF33:AG33"/>
-    <mergeCell ref="AF34:AG34"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AH28:AI28"/>
-    <mergeCell ref="AH29:AI29"/>
-    <mergeCell ref="AH30:AI30"/>
-    <mergeCell ref="AH31:AI31"/>
-    <mergeCell ref="AH32:AI32"/>
-    <mergeCell ref="AH33:AI33"/>
-    <mergeCell ref="AH34:AI34"/>
-    <mergeCell ref="AH35:AI35"/>
-    <mergeCell ref="AF29:AG29"/>
-    <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="AF31:AG31"/>
-    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="AD32:AE32"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="AD35:AE35"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="AF27:AG27"/>
+    <mergeCell ref="AH27:AI27"/>
+    <mergeCell ref="AF28:AG28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.23622047244094491" bottom="0.19685039370078741" header="0.35433070866141736" footer="0.31496062992125984"/>
-  <pageSetup scale="44" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="43" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="37" max="70" man="1"/>
   </colBreaks>
